--- a/config_5.18/box_exchange_server.xlsx
+++ b/config_5.18/box_exchange_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19035" windowHeight="10050" activeTab="7"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -5063,7 +5063,7 @@
     <t>运动手环</t>
   </si>
   <si>
-    <t>可怜12瓶</t>
+    <t>可乐12瓶</t>
   </si>
   <si>
     <t>猴菇饼干</t>
@@ -5202,10 +5202,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -5246,17 +5246,57 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5270,75 +5310,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5352,16 +5326,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5375,6 +5349,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -5383,16 +5365,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -5457,7 +5457,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5475,61 +5541,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5541,37 +5577,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5589,13 +5601,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5607,19 +5613,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5659,17 +5659,52 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5693,31 +5728,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5730,42 +5756,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5774,136 +5774,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -18368,10 +18368,10 @@
   <sheetPr/>
   <dimension ref="A1:F575"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A543" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I572" sqref="I572"/>
+      <selection pane="bottomLeft" activeCell="D564" sqref="D564"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -28858,7 +28858,7 @@
   <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>

--- a/config_5.18/box_exchange_server.xlsx
+++ b/config_5.18/box_exchange_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="6"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -183,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="736">
   <si>
     <t>id|</t>
   </si>
@@ -5224,9 +5224,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -5267,6 +5267,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -5275,11 +5282,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5291,7 +5298,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5306,29 +5365,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -5339,8 +5393,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5354,63 +5409,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5478,90 +5478,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -5574,7 +5490,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5592,13 +5556,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5610,13 +5616,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5628,19 +5640,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5680,39 +5680,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -5728,11 +5695,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5754,6 +5727,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -5763,17 +5769,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5783,10 +5783,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5795,138 +5795,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6025,12 +6025,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6084,9 +6078,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6407,29 +6398,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q91"/>
+  <dimension ref="A1:Q93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L92" sqref="L92"/>
+      <selection pane="bottomLeft" activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.125" style="41" customWidth="1"/>
-    <col min="2" max="2" width="28.75" style="40" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="40" customWidth="1"/>
-    <col min="4" max="4" width="27.875" style="40" customWidth="1"/>
+    <col min="1" max="1" width="10.125" style="39" customWidth="1"/>
+    <col min="2" max="2" width="28.75" style="38" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="38" customWidth="1"/>
+    <col min="4" max="4" width="27.875" style="38" customWidth="1"/>
     <col min="5" max="5" width="15.875" style="14" customWidth="1"/>
     <col min="6" max="6" width="23.5" customWidth="1"/>
     <col min="7" max="10" width="25.875" customWidth="1"/>
-    <col min="11" max="11" width="25.5" style="40" customWidth="1"/>
-    <col min="12" max="12" width="13.375" style="40" customWidth="1"/>
-    <col min="13" max="15" width="20.375" style="40" customWidth="1"/>
-    <col min="16" max="16" width="18.625" style="40" customWidth="1"/>
-    <col min="17" max="17" width="28.875" style="40" customWidth="1"/>
-    <col min="18" max="16384" width="11" style="40"/>
+    <col min="11" max="11" width="25.5" style="38" customWidth="1"/>
+    <col min="12" max="12" width="13.375" style="38" customWidth="1"/>
+    <col min="13" max="15" width="20.375" style="38" customWidth="1"/>
+    <col min="16" max="16" width="18.625" style="38" customWidth="1"/>
+    <col min="17" max="17" width="28.875" style="38" customWidth="1"/>
+    <col min="18" max="16384" width="11" style="38"/>
   </cols>
   <sheetData>
     <row r="1" ht="40.5" customHeight="1" spans="1:12">
@@ -6445,22 +6436,22 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="47" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -6493,8 +6484,8 @@
       <c r="L2" s="4">
         <v>0</v>
       </c>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
     </row>
     <row r="3" ht="16.5" spans="1:17">
       <c r="A3" s="8">
@@ -6519,8 +6510,8 @@
       <c r="L3" s="4">
         <v>0</v>
       </c>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
     </row>
     <row r="4" ht="16.5" spans="1:17">
       <c r="A4" s="8">
@@ -6545,8 +6536,8 @@
       <c r="L4" s="4">
         <v>0</v>
       </c>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="8">
@@ -6568,7 +6559,7 @@
       <c r="K5" s="4">
         <v>4</v>
       </c>
-      <c r="L5" s="40">
+      <c r="L5" s="38">
         <v>1</v>
       </c>
     </row>
@@ -6592,11 +6583,11 @@
       <c r="K6" s="4">
         <v>5</v>
       </c>
-      <c r="L6" s="40">
+      <c r="L6" s="38">
         <v>1</v>
       </c>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
     </row>
     <row r="7" ht="16.5" spans="1:17">
       <c r="A7" s="8">
@@ -6618,11 +6609,11 @@
       <c r="K7" s="4">
         <v>6</v>
       </c>
-      <c r="L7" s="40">
+      <c r="L7" s="38">
         <v>0</v>
       </c>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
     </row>
     <row r="8" ht="16.5" spans="1:17">
       <c r="A8" s="8">
@@ -6639,22 +6630,22 @@
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="50" t="s">
+      <c r="H8" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
       <c r="K8" s="4">
         <v>7</v>
       </c>
-      <c r="L8" s="40">
+      <c r="L8" s="38">
         <v>0</v>
       </c>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="53"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
     </row>
     <row r="9" ht="16.5" spans="1:17">
       <c r="A9" s="8">
@@ -6671,22 +6662,22 @@
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="50" t="s">
+      <c r="G9" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="50" t="s">
+      <c r="H9" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
       <c r="K9" s="4">
         <v>8</v>
       </c>
-      <c r="L9" s="40">
+      <c r="L9" s="38">
         <v>0</v>
       </c>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="51"/>
     </row>
     <row r="10" ht="16.5" spans="1:17">
       <c r="A10" s="8">
@@ -6703,22 +6694,22 @@
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="50" t="s">
+      <c r="G10" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="50" t="s">
+      <c r="H10" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
       <c r="K10" s="4">
         <v>9</v>
       </c>
-      <c r="L10" s="40">
+      <c r="L10" s="38">
         <v>0</v>
       </c>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="51"/>
     </row>
     <row r="11" ht="16.5" spans="1:17">
       <c r="A11" s="8">
@@ -6735,22 +6726,22 @@
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="50" t="s">
+      <c r="G11" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="50" t="s">
+      <c r="H11" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
       <c r="K11" s="4">
         <v>10</v>
       </c>
-      <c r="L11" s="40">
+      <c r="L11" s="38">
         <v>0</v>
       </c>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="53"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
     </row>
     <row r="12" ht="16.5" spans="1:17">
       <c r="A12" s="8">
@@ -6772,11 +6763,11 @@
       <c r="K12" s="4">
         <v>11</v>
       </c>
-      <c r="L12" s="40">
+      <c r="L12" s="38">
         <v>0</v>
       </c>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="53"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
     </row>
     <row r="13" ht="16.5" spans="1:17">
       <c r="A13" s="8">
@@ -6798,13 +6789,13 @@
       <c r="K13" s="4">
         <v>12</v>
       </c>
-      <c r="L13" s="40">
+      <c r="L13" s="38">
         <v>0</v>
       </c>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53"/>
-    </row>
-    <row r="14" s="41" customFormat="1" ht="16.5" spans="1:15">
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+    </row>
+    <row r="14" s="39" customFormat="1" ht="16.5" spans="1:15">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -6828,12 +6819,12 @@
       <c r="K14" s="8">
         <v>13</v>
       </c>
-      <c r="L14" s="41">
+      <c r="L14" s="39">
         <v>0</v>
       </c>
-      <c r="O14" s="54"/>
-    </row>
-    <row r="15" s="41" customFormat="1" ht="16.5" spans="1:15">
+      <c r="O14" s="52"/>
+    </row>
+    <row r="15" s="39" customFormat="1" ht="16.5" spans="1:15">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -6857,12 +6848,12 @@
       <c r="K15" s="8">
         <v>14</v>
       </c>
-      <c r="L15" s="41">
+      <c r="L15" s="39">
         <v>0</v>
       </c>
-      <c r="O15" s="54"/>
-    </row>
-    <row r="16" s="41" customFormat="1" ht="16.5" spans="1:15">
+      <c r="O15" s="52"/>
+    </row>
+    <row r="16" s="39" customFormat="1" ht="16.5" spans="1:15">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -6886,12 +6877,12 @@
       <c r="K16" s="8">
         <v>15</v>
       </c>
-      <c r="L16" s="41">
+      <c r="L16" s="39">
         <v>0</v>
       </c>
-      <c r="O16" s="54"/>
-    </row>
-    <row r="17" s="41" customFormat="1" ht="16.5" spans="1:15">
+      <c r="O16" s="52"/>
+    </row>
+    <row r="17" s="39" customFormat="1" ht="16.5" spans="1:15">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -6915,12 +6906,12 @@
       <c r="K17" s="8">
         <v>16</v>
       </c>
-      <c r="L17" s="41">
+      <c r="L17" s="39">
         <v>0</v>
       </c>
-      <c r="O17" s="54"/>
-    </row>
-    <row r="18" s="41" customFormat="1" spans="1:12">
+      <c r="O17" s="52"/>
+    </row>
+    <row r="18" s="39" customFormat="1" spans="1:12">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -6944,11 +6935,11 @@
       <c r="K18" s="8">
         <v>17</v>
       </c>
-      <c r="L18" s="41">
+      <c r="L18" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="19" s="41" customFormat="1" ht="16.5" spans="1:15">
+    <row r="19" s="39" customFormat="1" ht="16.5" spans="1:15">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -6972,12 +6963,12 @@
       <c r="K19" s="8">
         <v>18</v>
       </c>
-      <c r="L19" s="41">
+      <c r="L19" s="39">
         <v>0</v>
       </c>
-      <c r="O19" s="54"/>
-    </row>
-    <row r="20" s="41" customFormat="1" spans="1:12">
+      <c r="O19" s="52"/>
+    </row>
+    <row r="20" s="39" customFormat="1" spans="1:12">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -6990,7 +6981,7 @@
       <c r="D20" s="8">
         <v>1592841599</v>
       </c>
-      <c r="E20" s="51">
+      <c r="E20" s="49">
         <v>14</v>
       </c>
       <c r="F20" s="7"/>
@@ -7005,11 +6996,11 @@
       <c r="K20" s="8">
         <v>19</v>
       </c>
-      <c r="L20" s="41">
+      <c r="L20" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="21" s="41" customFormat="1" ht="16.5" spans="1:17">
+    <row r="21" s="39" customFormat="1" ht="16.5" spans="1:17">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -7022,7 +7013,7 @@
       <c r="D21" s="8">
         <v>1592841599</v>
       </c>
-      <c r="E21" s="51">
+      <c r="E21" s="49">
         <v>15</v>
       </c>
       <c r="F21" s="7"/>
@@ -7037,13 +7028,13 @@
       <c r="K21" s="8">
         <v>20</v>
       </c>
-      <c r="L21" s="41">
+      <c r="L21" s="39">
         <v>0</v>
       </c>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54"/>
-    </row>
-    <row r="22" s="41" customFormat="1" ht="16.5" spans="1:17">
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+    </row>
+    <row r="22" s="39" customFormat="1" ht="16.5" spans="1:17">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -7056,7 +7047,7 @@
       <c r="D22" s="8">
         <v>1592841599</v>
       </c>
-      <c r="E22" s="51">
+      <c r="E22" s="49">
         <v>16</v>
       </c>
       <c r="F22" s="7"/>
@@ -7071,13 +7062,13 @@
       <c r="K22" s="8">
         <v>21</v>
       </c>
-      <c r="L22" s="41">
+      <c r="L22" s="39">
         <v>0</v>
       </c>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="54"/>
-    </row>
-    <row r="23" s="41" customFormat="1" ht="16.5" spans="1:17">
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+    </row>
+    <row r="23" s="39" customFormat="1" ht="16.5" spans="1:17">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -7090,7 +7081,7 @@
       <c r="D23" s="8">
         <v>1592841599</v>
       </c>
-      <c r="E23" s="51">
+      <c r="E23" s="49">
         <v>17</v>
       </c>
       <c r="F23" s="7"/>
@@ -7105,13 +7096,13 @@
       <c r="K23" s="8">
         <v>22</v>
       </c>
-      <c r="L23" s="41">
+      <c r="L23" s="39">
         <v>0</v>
       </c>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="54"/>
-    </row>
-    <row r="24" s="41" customFormat="1" ht="16.5" spans="1:17">
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+    </row>
+    <row r="24" s="39" customFormat="1" ht="16.5" spans="1:17">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -7124,7 +7115,7 @@
       <c r="D24" s="8">
         <v>1592841599</v>
       </c>
-      <c r="E24" s="51">
+      <c r="E24" s="49">
         <v>18</v>
       </c>
       <c r="F24" s="7"/>
@@ -7139,13 +7130,13 @@
       <c r="K24" s="8">
         <v>23</v>
       </c>
-      <c r="L24" s="41">
+      <c r="L24" s="39">
         <v>0</v>
       </c>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="54"/>
-    </row>
-    <row r="25" s="41" customFormat="1" spans="1:12">
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
+    </row>
+    <row r="25" s="39" customFormat="1" spans="1:12">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -7158,7 +7149,7 @@
       <c r="D25" s="8">
         <v>1592841599</v>
       </c>
-      <c r="E25" s="51">
+      <c r="E25" s="49">
         <v>19</v>
       </c>
       <c r="F25" s="7"/>
@@ -7173,11 +7164,11 @@
       <c r="K25" s="8">
         <v>24</v>
       </c>
-      <c r="L25" s="41">
+      <c r="L25" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="26" s="41" customFormat="1" spans="1:12">
+    <row r="26" s="39" customFormat="1" spans="1:12">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -7190,7 +7181,7 @@
       <c r="D26" s="8">
         <v>1592841599</v>
       </c>
-      <c r="E26" s="51">
+      <c r="E26" s="49">
         <v>20</v>
       </c>
       <c r="F26" s="7"/>
@@ -7205,11 +7196,11 @@
       <c r="K26" s="8">
         <v>25</v>
       </c>
-      <c r="L26" s="41">
+      <c r="L26" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="27" s="41" customFormat="1" spans="1:12">
+    <row r="27" s="39" customFormat="1" spans="1:12">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -7222,7 +7213,7 @@
       <c r="D27" s="8">
         <v>1592841599</v>
       </c>
-      <c r="E27" s="51">
+      <c r="E27" s="49">
         <v>21</v>
       </c>
       <c r="F27" s="7"/>
@@ -7237,11 +7228,11 @@
       <c r="K27" s="8">
         <v>26</v>
       </c>
-      <c r="L27" s="41">
+      <c r="L27" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="28" s="41" customFormat="1" spans="1:12">
+    <row r="28" s="39" customFormat="1" spans="1:12">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -7254,7 +7245,7 @@
       <c r="D28" s="8">
         <v>1592841599</v>
       </c>
-      <c r="E28" s="51">
+      <c r="E28" s="49">
         <v>22</v>
       </c>
       <c r="F28" s="7"/>
@@ -7269,11 +7260,11 @@
       <c r="K28" s="8">
         <v>27</v>
       </c>
-      <c r="L28" s="41">
+      <c r="L28" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="29" s="41" customFormat="1" spans="1:12">
+    <row r="29" s="39" customFormat="1" spans="1:12">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -7286,7 +7277,7 @@
       <c r="D29" s="8">
         <v>1598284799</v>
       </c>
-      <c r="E29" s="51">
+      <c r="E29" s="49">
         <v>23</v>
       </c>
       <c r="F29" s="7"/>
@@ -7301,11 +7292,11 @@
       <c r="K29" s="8">
         <v>28</v>
       </c>
-      <c r="L29" s="41">
+      <c r="L29" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="30" s="41" customFormat="1" spans="1:12">
+    <row r="30" s="39" customFormat="1" spans="1:12">
       <c r="A30" s="8">
         <v>29</v>
       </c>
@@ -7318,7 +7309,7 @@
       <c r="D30" s="8">
         <v>1598284799</v>
       </c>
-      <c r="E30" s="51">
+      <c r="E30" s="49">
         <v>24</v>
       </c>
       <c r="F30" s="7"/>
@@ -7333,11 +7324,11 @@
       <c r="K30" s="8">
         <v>29</v>
       </c>
-      <c r="L30" s="41">
+      <c r="L30" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="31" s="41" customFormat="1" spans="1:12">
+    <row r="31" s="39" customFormat="1" spans="1:12">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -7350,7 +7341,7 @@
       <c r="D31" s="8">
         <v>1598284799</v>
       </c>
-      <c r="E31" s="51">
+      <c r="E31" s="49">
         <v>25</v>
       </c>
       <c r="F31" s="7"/>
@@ -7365,11 +7356,11 @@
       <c r="K31" s="8">
         <v>30</v>
       </c>
-      <c r="L31" s="41">
+      <c r="L31" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="32" s="41" customFormat="1" spans="1:12">
+    <row r="32" s="39" customFormat="1" spans="1:12">
       <c r="A32" s="8">
         <v>31</v>
       </c>
@@ -7382,7 +7373,7 @@
       <c r="D32" s="8">
         <v>1598284799</v>
       </c>
-      <c r="E32" s="51">
+      <c r="E32" s="49">
         <v>26</v>
       </c>
       <c r="F32" s="7"/>
@@ -7397,11 +7388,11 @@
       <c r="K32" s="8">
         <v>31</v>
       </c>
-      <c r="L32" s="41">
+      <c r="L32" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="33" s="41" customFormat="1" spans="1:12">
+    <row r="33" s="39" customFormat="1" spans="1:12">
       <c r="A33" s="8">
         <v>32</v>
       </c>
@@ -7414,7 +7405,7 @@
       <c r="D33" s="8">
         <v>1598284799</v>
       </c>
-      <c r="E33" s="51">
+      <c r="E33" s="49">
         <v>27</v>
       </c>
       <c r="F33" s="7"/>
@@ -7429,11 +7420,11 @@
       <c r="K33" s="8">
         <v>32</v>
       </c>
-      <c r="L33" s="41">
+      <c r="L33" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="34" s="41" customFormat="1" spans="1:12">
+    <row r="34" s="39" customFormat="1" spans="1:12">
       <c r="A34" s="8">
         <v>33</v>
       </c>
@@ -7446,7 +7437,7 @@
       <c r="D34" s="8">
         <v>1598284799</v>
       </c>
-      <c r="E34" s="51">
+      <c r="E34" s="49">
         <v>28</v>
       </c>
       <c r="F34" s="7"/>
@@ -7461,11 +7452,11 @@
       <c r="K34" s="8">
         <v>33</v>
       </c>
-      <c r="L34" s="41">
+      <c r="L34" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="35" s="41" customFormat="1" spans="1:12">
+    <row r="35" s="39" customFormat="1" spans="1:12">
       <c r="A35" s="8">
         <v>34</v>
       </c>
@@ -7478,7 +7469,7 @@
       <c r="D35" s="8">
         <v>1598284799</v>
       </c>
-      <c r="E35" s="51">
+      <c r="E35" s="49">
         <v>29</v>
       </c>
       <c r="F35" s="7"/>
@@ -7493,11 +7484,11 @@
       <c r="K35" s="8">
         <v>34</v>
       </c>
-      <c r="L35" s="41">
+      <c r="L35" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="36" s="41" customFormat="1" spans="1:12">
+    <row r="36" s="39" customFormat="1" spans="1:12">
       <c r="A36" s="8">
         <v>35</v>
       </c>
@@ -7510,7 +7501,7 @@
       <c r="D36" s="8">
         <v>1598284799</v>
       </c>
-      <c r="E36" s="51">
+      <c r="E36" s="49">
         <v>30</v>
       </c>
       <c r="F36" s="7"/>
@@ -7525,11 +7516,11 @@
       <c r="K36" s="8">
         <v>35</v>
       </c>
-      <c r="L36" s="41">
+      <c r="L36" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="37" s="41" customFormat="1" spans="1:12">
+    <row r="37" s="39" customFormat="1" spans="1:12">
       <c r="A37" s="8">
         <v>36</v>
       </c>
@@ -7542,7 +7533,7 @@
       <c r="D37" s="8">
         <v>1598284799</v>
       </c>
-      <c r="E37" s="51">
+      <c r="E37" s="49">
         <v>31</v>
       </c>
       <c r="F37" s="7"/>
@@ -7557,12 +7548,12 @@
       <c r="K37" s="8">
         <v>36</v>
       </c>
-      <c r="L37" s="41">
+      <c r="L37" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="38" s="41" customFormat="1" spans="1:12">
-      <c r="A38" s="41">
+    <row r="38" s="39" customFormat="1" spans="1:12">
+      <c r="A38" s="39">
         <v>37</v>
       </c>
       <c r="B38" s="15" t="s">
@@ -7574,7 +7565,7 @@
       <c r="D38" s="8">
         <v>32503651200</v>
       </c>
-      <c r="E38" s="51">
+      <c r="E38" s="49">
         <v>32</v>
       </c>
       <c r="F38" s="7"/>
@@ -7585,12 +7576,12 @@
       <c r="K38" s="8">
         <v>37</v>
       </c>
-      <c r="L38" s="41">
+      <c r="L38" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="39" s="41" customFormat="1" spans="1:12">
-      <c r="A39" s="41">
+    <row r="39" s="39" customFormat="1" spans="1:12">
+      <c r="A39" s="39">
         <v>38</v>
       </c>
       <c r="B39" s="15" t="s">
@@ -7602,7 +7593,7 @@
       <c r="D39" s="8">
         <v>32503651200</v>
       </c>
-      <c r="E39" s="51">
+      <c r="E39" s="49">
         <v>33</v>
       </c>
       <c r="F39" s="7"/>
@@ -7613,12 +7604,12 @@
       <c r="K39" s="8">
         <v>38</v>
       </c>
-      <c r="L39" s="41">
+      <c r="L39" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" s="41" customFormat="1" spans="1:12">
-      <c r="A40" s="41">
+    <row r="40" s="39" customFormat="1" spans="1:12">
+      <c r="A40" s="39">
         <v>39</v>
       </c>
       <c r="B40" s="15" t="s">
@@ -7630,7 +7621,7 @@
       <c r="D40" s="8">
         <v>32503651200</v>
       </c>
-      <c r="E40" s="51">
+      <c r="E40" s="49">
         <v>34</v>
       </c>
       <c r="F40" s="7"/>
@@ -7641,24 +7632,24 @@
       <c r="K40" s="8">
         <v>39</v>
       </c>
-      <c r="L40" s="41">
+      <c r="L40" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="41" s="41" customFormat="1" spans="1:12">
-      <c r="A41" s="41">
+    <row r="41" s="39" customFormat="1" spans="1:12">
+      <c r="A41" s="39">
         <v>40</v>
       </c>
-      <c r="B41" s="42" t="s">
+      <c r="B41" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="41">
+      <c r="C41" s="39">
         <v>1602547200</v>
       </c>
-      <c r="D41" s="41">
+      <c r="D41" s="39">
         <v>1603123199</v>
       </c>
-      <c r="E41" s="51">
+      <c r="E41" s="49">
         <v>35</v>
       </c>
       <c r="F41" s="7"/>
@@ -7666,27 +7657,27 @@
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
-      <c r="K41" s="41">
+      <c r="K41" s="39">
         <v>40</v>
       </c>
-      <c r="L41" s="41">
+      <c r="L41" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="42" s="41" customFormat="1" spans="1:12">
-      <c r="A42" s="41">
+    <row r="42" s="39" customFormat="1" spans="1:12">
+      <c r="A42" s="39">
         <v>41</v>
       </c>
-      <c r="B42" s="41" t="s">
+      <c r="B42" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="41">
+      <c r="C42" s="39">
         <v>1599523200</v>
       </c>
-      <c r="D42" s="41">
+      <c r="D42" s="39">
         <v>1600099199</v>
       </c>
-      <c r="E42" s="51">
+      <c r="E42" s="49">
         <v>36</v>
       </c>
       <c r="F42" s="7"/>
@@ -7694,27 +7685,27 @@
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
-      <c r="K42" s="41">
+      <c r="K42" s="39">
         <v>41</v>
       </c>
-      <c r="L42" s="41">
+      <c r="L42" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="43" s="41" customFormat="1" spans="1:12">
-      <c r="A43" s="41">
+    <row r="43" s="39" customFormat="1" spans="1:12">
+      <c r="A43" s="39">
         <v>42</v>
       </c>
-      <c r="B43" s="42" t="s">
+      <c r="B43" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="41">
+      <c r="C43" s="39">
         <v>1600732800</v>
       </c>
-      <c r="D43" s="41">
+      <c r="D43" s="39">
         <v>1601308799</v>
       </c>
-      <c r="E43" s="51">
+      <c r="E43" s="49">
         <v>37</v>
       </c>
       <c r="F43" s="7"/>
@@ -7722,15 +7713,15 @@
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
-      <c r="K43" s="41">
+      <c r="K43" s="39">
         <v>42</v>
       </c>
-      <c r="L43" s="41">
+      <c r="L43" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="44" s="41" customFormat="1" spans="1:12">
-      <c r="A44" s="41">
+    <row r="44" s="39" customFormat="1" spans="1:12">
+      <c r="A44" s="39">
         <v>43</v>
       </c>
       <c r="B44" s="15" t="s">
@@ -7742,7 +7733,7 @@
       <c r="D44" s="8">
         <v>32503651200</v>
       </c>
-      <c r="E44" s="51">
+      <c r="E44" s="49">
         <v>38</v>
       </c>
       <c r="F44" s="7"/>
@@ -7750,15 +7741,15 @@
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
-      <c r="K44" s="41">
+      <c r="K44" s="39">
         <v>43</v>
       </c>
-      <c r="L44" s="41">
+      <c r="L44" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="45" s="41" customFormat="1" spans="1:12">
-      <c r="A45" s="41">
+    <row r="45" s="39" customFormat="1" spans="1:12">
+      <c r="A45" s="39">
         <v>44</v>
       </c>
       <c r="B45" s="15" t="s">
@@ -7770,7 +7761,7 @@
       <c r="D45" s="8">
         <v>32503651200</v>
       </c>
-      <c r="E45" s="51">
+      <c r="E45" s="49">
         <v>39</v>
       </c>
       <c r="F45" s="7"/>
@@ -7778,15 +7769,15 @@
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
-      <c r="K45" s="41">
+      <c r="K45" s="39">
         <v>44</v>
       </c>
-      <c r="L45" s="41">
+      <c r="L45" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="46" s="41" customFormat="1" spans="1:12">
-      <c r="A46" s="41">
+    <row r="46" s="39" customFormat="1" spans="1:12">
+      <c r="A46" s="39">
         <v>45</v>
       </c>
       <c r="B46" s="15" t="s">
@@ -7798,7 +7789,7 @@
       <c r="D46" s="8">
         <v>32503651200</v>
       </c>
-      <c r="E46" s="51">
+      <c r="E46" s="49">
         <v>40</v>
       </c>
       <c r="F46" s="7"/>
@@ -7806,27 +7797,27 @@
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
-      <c r="K46" s="41">
+      <c r="K46" s="39">
         <v>45</v>
       </c>
-      <c r="L46" s="41">
+      <c r="L46" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="47" s="41" customFormat="1" spans="1:12">
-      <c r="A47" s="41">
+    <row r="47" s="39" customFormat="1" spans="1:12">
+      <c r="A47" s="39">
         <v>46</v>
       </c>
-      <c r="B47" s="42" t="s">
+      <c r="B47" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="41">
+      <c r="C47" s="39">
         <v>1603152000</v>
       </c>
-      <c r="D47" s="41">
+      <c r="D47" s="39">
         <v>1603727999</v>
       </c>
-      <c r="E47" s="51">
+      <c r="E47" s="49">
         <v>41</v>
       </c>
       <c r="F47" s="7"/>
@@ -7838,27 +7829,27 @@
       <c r="J47" s="7">
         <v>0</v>
       </c>
-      <c r="K47" s="41">
+      <c r="K47" s="39">
         <v>46</v>
       </c>
-      <c r="L47" s="41">
+      <c r="L47" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="48" s="41" customFormat="1" spans="1:12">
-      <c r="A48" s="41">
+    <row r="48" s="39" customFormat="1" spans="1:12">
+      <c r="A48" s="39">
         <v>47</v>
       </c>
-      <c r="B48" s="42" t="s">
+      <c r="B48" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C48" s="41">
+      <c r="C48" s="39">
         <v>1603756800</v>
       </c>
-      <c r="D48" s="41">
+      <c r="D48" s="39">
         <v>1604332799</v>
       </c>
-      <c r="E48" s="51">
+      <c r="E48" s="49">
         <v>42</v>
       </c>
       <c r="F48" s="7"/>
@@ -7870,27 +7861,27 @@
       <c r="J48" s="7">
         <v>0</v>
       </c>
-      <c r="K48" s="41">
+      <c r="K48" s="39">
         <v>47</v>
       </c>
-      <c r="L48" s="41">
+      <c r="L48" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="49" s="41" customFormat="1" spans="1:12">
-      <c r="A49" s="41">
+    <row r="49" s="39" customFormat="1" spans="1:12">
+      <c r="A49" s="39">
         <v>48</v>
       </c>
-      <c r="B49" s="42" t="s">
+      <c r="B49" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="41">
+      <c r="C49" s="39">
         <v>1603756800</v>
       </c>
-      <c r="D49" s="41">
+      <c r="D49" s="39">
         <v>1604332799</v>
       </c>
-      <c r="E49" s="51">
+      <c r="E49" s="49">
         <v>43</v>
       </c>
       <c r="F49" s="7"/>
@@ -7902,27 +7893,27 @@
       <c r="J49" s="7">
         <v>0</v>
       </c>
-      <c r="K49" s="41">
+      <c r="K49" s="39">
         <v>48</v>
       </c>
-      <c r="L49" s="41">
+      <c r="L49" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="50" s="41" customFormat="1" spans="1:12">
-      <c r="A50" s="41">
+    <row r="50" s="39" customFormat="1" spans="1:12">
+      <c r="A50" s="39">
         <v>49</v>
       </c>
-      <c r="B50" s="42" t="s">
+      <c r="B50" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="C50" s="41">
+      <c r="C50" s="39">
         <v>1603756800</v>
       </c>
-      <c r="D50" s="41">
+      <c r="D50" s="39">
         <v>1604332799</v>
       </c>
-      <c r="E50" s="51">
+      <c r="E50" s="49">
         <v>44</v>
       </c>
       <c r="F50" s="7"/>
@@ -7934,27 +7925,27 @@
       <c r="J50" s="7">
         <v>0</v>
       </c>
-      <c r="K50" s="41">
+      <c r="K50" s="39">
         <v>49</v>
       </c>
-      <c r="L50" s="41">
+      <c r="L50" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="51" s="41" customFormat="1" spans="1:12">
-      <c r="A51" s="41">
+    <row r="51" s="39" customFormat="1" spans="1:12">
+      <c r="A51" s="39">
         <v>50</v>
       </c>
-      <c r="B51" s="42" t="s">
+      <c r="B51" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="C51" s="41">
+      <c r="C51" s="39">
         <v>1603756800</v>
       </c>
-      <c r="D51" s="41">
+      <c r="D51" s="39">
         <v>1604332799</v>
       </c>
-      <c r="E51" s="51">
+      <c r="E51" s="49">
         <v>45</v>
       </c>
       <c r="F51" s="7"/>
@@ -7966,27 +7957,27 @@
       <c r="J51" s="7">
         <v>0</v>
       </c>
-      <c r="K51" s="41">
+      <c r="K51" s="39">
         <v>50</v>
       </c>
-      <c r="L51" s="41">
+      <c r="L51" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="52" s="41" customFormat="1" spans="1:12">
-      <c r="A52" s="41">
+    <row r="52" s="39" customFormat="1" spans="1:12">
+      <c r="A52" s="39">
         <v>51</v>
       </c>
-      <c r="B52" s="42" t="s">
+      <c r="B52" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="41">
+      <c r="C52" s="39">
         <v>1603756800</v>
       </c>
-      <c r="D52" s="41">
+      <c r="D52" s="39">
         <v>1604332799</v>
       </c>
-      <c r="E52" s="51">
+      <c r="E52" s="49">
         <v>46</v>
       </c>
       <c r="F52" s="7"/>
@@ -7998,27 +7989,27 @@
       <c r="J52" s="7">
         <v>0</v>
       </c>
-      <c r="K52" s="41">
+      <c r="K52" s="39">
         <v>51</v>
       </c>
-      <c r="L52" s="41">
+      <c r="L52" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="53" s="41" customFormat="1" spans="1:12">
-      <c r="A53" s="41">
+    <row r="53" s="39" customFormat="1" spans="1:12">
+      <c r="A53" s="39">
         <v>52</v>
       </c>
-      <c r="B53" s="42" t="s">
+      <c r="B53" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="C53" s="41">
+      <c r="C53" s="39">
         <v>1603756800</v>
       </c>
-      <c r="D53" s="41">
+      <c r="D53" s="39">
         <v>1604332799</v>
       </c>
-      <c r="E53" s="51">
+      <c r="E53" s="49">
         <v>47</v>
       </c>
       <c r="F53" s="7"/>
@@ -8030,27 +8021,27 @@
       <c r="J53" s="7">
         <v>0</v>
       </c>
-      <c r="K53" s="41">
+      <c r="K53" s="39">
         <v>52</v>
       </c>
-      <c r="L53" s="41">
+      <c r="L53" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="54" s="41" customFormat="1" spans="1:12">
-      <c r="A54" s="41">
+    <row r="54" s="39" customFormat="1" spans="1:12">
+      <c r="A54" s="39">
         <v>53</v>
       </c>
-      <c r="B54" s="41" t="s">
+      <c r="B54" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="C54" s="41">
+      <c r="C54" s="39">
         <v>1603756800</v>
       </c>
-      <c r="D54" s="41">
+      <c r="D54" s="39">
         <v>2552233600</v>
       </c>
-      <c r="E54" s="51">
+      <c r="E54" s="49">
         <v>48</v>
       </c>
       <c r="F54" s="7"/>
@@ -8061,24 +8052,24 @@
       <c r="K54" s="8">
         <v>53</v>
       </c>
-      <c r="L54" s="41">
+      <c r="L54" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="55" s="41" customFormat="1" spans="1:12">
-      <c r="A55" s="41">
+    <row r="55" s="39" customFormat="1" spans="1:12">
+      <c r="A55" s="39">
         <v>54</v>
       </c>
-      <c r="B55" s="41" t="s">
+      <c r="B55" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C55" s="41">
+      <c r="C55" s="39">
         <v>1603756800</v>
       </c>
-      <c r="D55" s="41">
+      <c r="D55" s="39">
         <v>2552233600</v>
       </c>
-      <c r="E55" s="51">
+      <c r="E55" s="49">
         <v>49</v>
       </c>
       <c r="F55" s="7"/>
@@ -8089,24 +8080,24 @@
       <c r="K55" s="8">
         <v>54</v>
       </c>
-      <c r="L55" s="41">
+      <c r="L55" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="56" s="41" customFormat="1" spans="1:12">
-      <c r="A56" s="41">
+    <row r="56" s="39" customFormat="1" spans="1:12">
+      <c r="A56" s="39">
         <v>55</v>
       </c>
-      <c r="B56" s="41" t="s">
+      <c r="B56" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="C56" s="41">
+      <c r="C56" s="39">
         <v>1603756800</v>
       </c>
-      <c r="D56" s="41">
+      <c r="D56" s="39">
         <v>2552233600</v>
       </c>
-      <c r="E56" s="51">
+      <c r="E56" s="49">
         <v>50</v>
       </c>
       <c r="F56" s="7"/>
@@ -8117,24 +8108,24 @@
       <c r="K56" s="8">
         <v>55</v>
       </c>
-      <c r="L56" s="41">
+      <c r="L56" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="57" s="41" customFormat="1" spans="1:12">
-      <c r="A57" s="41">
+    <row r="57" s="39" customFormat="1" spans="1:12">
+      <c r="A57" s="39">
         <v>56</v>
       </c>
-      <c r="B57" s="41" t="s">
+      <c r="B57" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="C57" s="41">
+      <c r="C57" s="39">
         <v>1604966400</v>
       </c>
-      <c r="D57" s="41">
+      <c r="D57" s="39">
         <v>1605542399</v>
       </c>
-      <c r="E57" s="51">
+      <c r="E57" s="49">
         <v>51</v>
       </c>
       <c r="F57" s="7"/>
@@ -8142,27 +8133,27 @@
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
-      <c r="K57" s="41">
+      <c r="K57" s="39">
         <v>56</v>
       </c>
-      <c r="L57" s="41">
+      <c r="L57" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="58" s="41" customFormat="1" spans="1:12">
-      <c r="A58" s="41">
+    <row r="58" s="39" customFormat="1" spans="1:12">
+      <c r="A58" s="39">
         <v>57</v>
       </c>
-      <c r="B58" s="41" t="s">
+      <c r="B58" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="C58" s="41">
+      <c r="C58" s="39">
         <v>1606176000</v>
       </c>
-      <c r="D58" s="41">
+      <c r="D58" s="39">
         <v>1606751999</v>
       </c>
-      <c r="E58" s="51">
+      <c r="E58" s="49">
         <v>52</v>
       </c>
       <c r="F58" s="7"/>
@@ -8170,27 +8161,27 @@
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
-      <c r="K58" s="41">
+      <c r="K58" s="39">
         <v>57</v>
       </c>
-      <c r="L58" s="41">
+      <c r="L58" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="59" s="41" customFormat="1" spans="1:12">
-      <c r="A59" s="41">
+    <row r="59" s="39" customFormat="1" spans="1:12">
+      <c r="A59" s="39">
         <v>58</v>
       </c>
-      <c r="B59" s="41" t="s">
+      <c r="B59" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="C59" s="41">
+      <c r="C59" s="39">
         <v>1606176000</v>
       </c>
-      <c r="D59" s="41">
+      <c r="D59" s="39">
         <v>1606751999</v>
       </c>
-      <c r="E59" s="51">
+      <c r="E59" s="49">
         <v>53</v>
       </c>
       <c r="F59" s="7"/>
@@ -8198,27 +8189,27 @@
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
-      <c r="K59" s="41">
+      <c r="K59" s="39">
         <v>58</v>
       </c>
-      <c r="L59" s="41">
+      <c r="L59" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="60" s="41" customFormat="1" spans="1:12">
-      <c r="A60" s="41">
+    <row r="60" s="39" customFormat="1" spans="1:12">
+      <c r="A60" s="39">
         <v>59</v>
       </c>
-      <c r="B60" s="41" t="s">
+      <c r="B60" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="C60" s="41">
+      <c r="C60" s="39">
         <v>1606176000</v>
       </c>
-      <c r="D60" s="41">
+      <c r="D60" s="39">
         <v>1606751999</v>
       </c>
-      <c r="E60" s="51">
+      <c r="E60" s="49">
         <v>54</v>
       </c>
       <c r="F60" s="7"/>
@@ -8226,18 +8217,18 @@
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
-      <c r="K60" s="41">
+      <c r="K60" s="39">
         <v>59</v>
       </c>
-      <c r="L60" s="41">
+      <c r="L60" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="61" s="41" customFormat="1" spans="1:12">
-      <c r="A61" s="41">
+    <row r="61" s="39" customFormat="1" spans="1:12">
+      <c r="A61" s="39">
         <v>60</v>
       </c>
-      <c r="B61" s="41" t="s">
+      <c r="B61" s="39" t="s">
         <v>75</v>
       </c>
       <c r="C61" s="8">
@@ -8246,7 +8237,7 @@
       <c r="D61" s="8">
         <v>1607961599</v>
       </c>
-      <c r="E61" s="51">
+      <c r="E61" s="49">
         <v>55</v>
       </c>
       <c r="F61" s="7"/>
@@ -8254,15 +8245,15 @@
       <c r="H61" s="7"/>
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
-      <c r="K61" s="41">
+      <c r="K61" s="39">
         <v>60</v>
       </c>
-      <c r="L61" s="41">
+      <c r="L61" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="62" s="41" customFormat="1" spans="1:12">
-      <c r="A62" s="41">
+    <row r="62" s="39" customFormat="1" spans="1:12">
+      <c r="A62" s="39">
         <v>61</v>
       </c>
       <c r="B62" s="15" t="s">
@@ -8274,7 +8265,7 @@
       <c r="D62" s="8">
         <v>32503651200</v>
       </c>
-      <c r="E62" s="51">
+      <c r="E62" s="49">
         <v>56</v>
       </c>
       <c r="F62" s="8"/>
@@ -8282,15 +8273,15 @@
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
-      <c r="K62" s="41">
+      <c r="K62" s="39">
         <v>61</v>
       </c>
-      <c r="L62" s="41">
+      <c r="L62" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="63" s="41" customFormat="1" spans="1:12">
-      <c r="A63" s="41">
+    <row r="63" s="39" customFormat="1" spans="1:12">
+      <c r="A63" s="39">
         <v>62</v>
       </c>
       <c r="B63" s="15" t="s">
@@ -8302,7 +8293,7 @@
       <c r="D63" s="8">
         <v>32503651200</v>
       </c>
-      <c r="E63" s="51">
+      <c r="E63" s="49">
         <v>57</v>
       </c>
       <c r="F63" s="7"/>
@@ -8310,27 +8301,27 @@
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
-      <c r="K63" s="41">
+      <c r="K63" s="39">
         <v>62</v>
       </c>
-      <c r="L63" s="41">
+      <c r="L63" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="64" s="41" customFormat="1" spans="1:12">
-      <c r="A64" s="41">
+    <row r="64" s="39" customFormat="1" spans="1:12">
+      <c r="A64" s="39">
         <v>63</v>
       </c>
-      <c r="B64" s="42" t="s">
+      <c r="B64" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C64" s="52">
+      <c r="C64" s="50">
         <v>1609200000</v>
       </c>
-      <c r="D64" s="52">
+      <c r="D64" s="50">
         <v>1609775999</v>
       </c>
-      <c r="E64" s="51">
+      <c r="E64" s="49">
         <v>58</v>
       </c>
       <c r="F64" s="7"/>
@@ -8342,27 +8333,27 @@
       <c r="J64" s="7">
         <v>0</v>
       </c>
-      <c r="K64" s="41">
+      <c r="K64" s="39">
         <v>63</v>
       </c>
-      <c r="L64" s="41">
+      <c r="L64" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="65" s="41" customFormat="1" spans="1:12">
-      <c r="A65" s="41">
+    <row r="65" s="39" customFormat="1" spans="1:12">
+      <c r="A65" s="39">
         <v>64</v>
       </c>
-      <c r="B65" s="42" t="s">
+      <c r="B65" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="52">
+      <c r="C65" s="50">
         <v>1609200000</v>
       </c>
-      <c r="D65" s="52">
+      <c r="D65" s="50">
         <v>1609775999</v>
       </c>
-      <c r="E65" s="51">
+      <c r="E65" s="49">
         <v>59</v>
       </c>
       <c r="F65" s="7"/>
@@ -8374,27 +8365,27 @@
       <c r="J65" s="7">
         <v>0</v>
       </c>
-      <c r="K65" s="41">
+      <c r="K65" s="39">
         <v>64</v>
       </c>
-      <c r="L65" s="41">
+      <c r="L65" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="66" s="41" customFormat="1" spans="1:12">
-      <c r="A66" s="41">
+    <row r="66" s="39" customFormat="1" spans="1:12">
+      <c r="A66" s="39">
         <v>65</v>
       </c>
-      <c r="B66" s="42" t="s">
+      <c r="B66" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="C66" s="52">
+      <c r="C66" s="50">
         <v>1609200000</v>
       </c>
-      <c r="D66" s="52">
+      <c r="D66" s="50">
         <v>1609775999</v>
       </c>
-      <c r="E66" s="51">
+      <c r="E66" s="49">
         <v>60</v>
       </c>
       <c r="F66" s="7"/>
@@ -8406,27 +8397,27 @@
       <c r="J66" s="7">
         <v>0</v>
       </c>
-      <c r="K66" s="41">
+      <c r="K66" s="39">
         <v>65</v>
       </c>
-      <c r="L66" s="41">
+      <c r="L66" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="67" s="41" customFormat="1" spans="1:12">
-      <c r="A67" s="41">
+    <row r="67" s="39" customFormat="1" spans="1:12">
+      <c r="A67" s="39">
         <v>66</v>
       </c>
-      <c r="B67" s="42" t="s">
+      <c r="B67" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="C67" s="52">
+      <c r="C67" s="50">
         <v>1609200000</v>
       </c>
-      <c r="D67" s="52">
+      <c r="D67" s="50">
         <v>1609775999</v>
       </c>
-      <c r="E67" s="51">
+      <c r="E67" s="49">
         <v>61</v>
       </c>
       <c r="F67" s="7"/>
@@ -8438,27 +8429,27 @@
       <c r="J67" s="7">
         <v>0</v>
       </c>
-      <c r="K67" s="41">
+      <c r="K67" s="39">
         <v>66</v>
       </c>
-      <c r="L67" s="41">
+      <c r="L67" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="68" s="41" customFormat="1" spans="1:12">
-      <c r="A68" s="41">
+    <row r="68" s="39" customFormat="1" spans="1:12">
+      <c r="A68" s="39">
         <v>67</v>
       </c>
-      <c r="B68" s="42" t="s">
+      <c r="B68" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="C68" s="52">
+      <c r="C68" s="50">
         <v>1609200000</v>
       </c>
-      <c r="D68" s="52">
+      <c r="D68" s="50">
         <v>1609775999</v>
       </c>
-      <c r="E68" s="51">
+      <c r="E68" s="49">
         <v>62</v>
       </c>
       <c r="F68" s="7"/>
@@ -8470,27 +8461,27 @@
       <c r="J68" s="7">
         <v>0</v>
       </c>
-      <c r="K68" s="41">
+      <c r="K68" s="39">
         <v>67</v>
       </c>
-      <c r="L68" s="41">
+      <c r="L68" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="69" s="41" customFormat="1" spans="1:12">
-      <c r="A69" s="41">
+    <row r="69" s="39" customFormat="1" spans="1:12">
+      <c r="A69" s="39">
         <v>68</v>
       </c>
-      <c r="B69" s="42" t="s">
+      <c r="B69" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="C69" s="52">
+      <c r="C69" s="50">
         <v>1609200000</v>
       </c>
-      <c r="D69" s="52">
+      <c r="D69" s="50">
         <v>1609775999</v>
       </c>
-      <c r="E69" s="51">
+      <c r="E69" s="49">
         <v>63</v>
       </c>
       <c r="F69" s="7"/>
@@ -8502,27 +8493,27 @@
       <c r="J69" s="7">
         <v>0</v>
       </c>
-      <c r="K69" s="41">
+      <c r="K69" s="39">
         <v>68</v>
       </c>
-      <c r="L69" s="41">
+      <c r="L69" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="70" s="41" customFormat="1" spans="1:12">
-      <c r="A70" s="41">
+    <row r="70" s="39" customFormat="1" spans="1:12">
+      <c r="A70" s="39">
         <v>69</v>
       </c>
-      <c r="B70" s="42" t="s">
+      <c r="B70" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="C70" s="52">
+      <c r="C70" s="50">
         <v>1609804800</v>
       </c>
-      <c r="D70" s="52">
+      <c r="D70" s="50">
         <v>1610380799</v>
       </c>
-      <c r="E70" s="51">
+      <c r="E70" s="49">
         <v>64</v>
       </c>
       <c r="F70" s="7"/>
@@ -8530,27 +8521,27 @@
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
-      <c r="K70" s="41">
+      <c r="K70" s="39">
         <v>69</v>
       </c>
-      <c r="L70" s="41">
+      <c r="L70" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="71" s="41" customFormat="1" spans="1:12">
-      <c r="A71" s="41">
+    <row r="71" s="39" customFormat="1" spans="1:12">
+      <c r="A71" s="39">
         <v>70</v>
       </c>
-      <c r="B71" s="41" t="s">
+      <c r="B71" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="C71" s="41">
+      <c r="C71" s="39">
         <v>1610409600</v>
       </c>
-      <c r="D71" s="41">
+      <c r="D71" s="39">
         <v>1610985599</v>
       </c>
-      <c r="E71" s="51">
+      <c r="E71" s="49">
         <v>65</v>
       </c>
       <c r="F71" s="7"/>
@@ -8558,27 +8549,27 @@
       <c r="H71" s="7"/>
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
-      <c r="K71" s="41">
+      <c r="K71" s="39">
         <v>70</v>
       </c>
-      <c r="L71" s="41">
+      <c r="L71" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="72" s="41" customFormat="1" spans="1:12">
-      <c r="A72" s="41">
+    <row r="72" s="39" customFormat="1" spans="1:12">
+      <c r="A72" s="39">
         <v>71</v>
       </c>
-      <c r="B72" s="41" t="s">
+      <c r="B72" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="C72" s="41">
+      <c r="C72" s="39">
         <v>1610409600</v>
       </c>
-      <c r="D72" s="41">
+      <c r="D72" s="39">
         <v>1610985599</v>
       </c>
-      <c r="E72" s="51">
+      <c r="E72" s="49">
         <v>66</v>
       </c>
       <c r="F72" s="7"/>
@@ -8586,27 +8577,27 @@
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
-      <c r="K72" s="41">
+      <c r="K72" s="39">
         <v>71</v>
       </c>
-      <c r="L72" s="41">
+      <c r="L72" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="73" s="41" customFormat="1" spans="1:12">
-      <c r="A73" s="41">
+    <row r="73" s="39" customFormat="1" spans="1:12">
+      <c r="A73" s="39">
         <v>72</v>
       </c>
-      <c r="B73" s="41" t="s">
+      <c r="B73" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="C73" s="41">
+      <c r="C73" s="39">
         <v>1610409600</v>
       </c>
-      <c r="D73" s="41">
+      <c r="D73" s="39">
         <v>1610985599</v>
       </c>
-      <c r="E73" s="51">
+      <c r="E73" s="49">
         <v>67</v>
       </c>
       <c r="F73" s="7"/>
@@ -8614,27 +8605,27 @@
       <c r="H73" s="7"/>
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
-      <c r="K73" s="41">
+      <c r="K73" s="39">
         <v>72</v>
       </c>
-      <c r="L73" s="41">
+      <c r="L73" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="74" s="41" customFormat="1" spans="1:12">
-      <c r="A74" s="41">
+    <row r="74" s="39" customFormat="1" spans="1:12">
+      <c r="A74" s="39">
         <v>73</v>
       </c>
-      <c r="B74" s="41" t="s">
+      <c r="B74" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="C74" s="41">
+      <c r="C74" s="39">
         <v>1612828800</v>
       </c>
-      <c r="D74" s="41">
+      <c r="D74" s="39">
         <v>1613404799</v>
       </c>
-      <c r="E74" s="51">
+      <c r="E74" s="49">
         <v>68</v>
       </c>
       <c r="F74" s="7"/>
@@ -8642,27 +8633,27 @@
       <c r="H74" s="7"/>
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
-      <c r="K74" s="41">
+      <c r="K74" s="39">
         <v>73</v>
       </c>
-      <c r="L74" s="41">
+      <c r="L74" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="75" s="41" customFormat="1" spans="1:12">
-      <c r="A75" s="41">
+    <row r="75" s="39" customFormat="1" spans="1:12">
+      <c r="A75" s="39">
         <v>74</v>
       </c>
-      <c r="B75" s="42" t="s">
+      <c r="B75" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C75" s="41">
+      <c r="C75" s="39">
         <v>1612828800</v>
       </c>
-      <c r="D75" s="41">
+      <c r="D75" s="39">
         <v>1613404799</v>
       </c>
-      <c r="E75" s="51">
+      <c r="E75" s="49">
         <v>69</v>
       </c>
       <c r="F75" s="7"/>
@@ -8670,27 +8661,27 @@
       <c r="H75" s="7"/>
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
-      <c r="K75" s="41">
+      <c r="K75" s="39">
         <v>74</v>
       </c>
-      <c r="L75" s="41">
+      <c r="L75" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="76" s="41" customFormat="1" spans="1:12">
-      <c r="A76" s="41">
+    <row r="76" s="39" customFormat="1" spans="1:12">
+      <c r="A76" s="39">
         <v>75</v>
       </c>
-      <c r="B76" s="42" t="s">
+      <c r="B76" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="C76" s="41">
+      <c r="C76" s="39">
         <v>1612828800</v>
       </c>
-      <c r="D76" s="41">
+      <c r="D76" s="39">
         <v>1613404799</v>
       </c>
-      <c r="E76" s="51">
+      <c r="E76" s="49">
         <v>69</v>
       </c>
       <c r="F76" s="7"/>
@@ -8698,27 +8689,27 @@
       <c r="H76" s="7"/>
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
-      <c r="K76" s="41">
+      <c r="K76" s="39">
         <v>75</v>
       </c>
-      <c r="L76" s="41">
+      <c r="L76" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="77" s="41" customFormat="1" spans="1:12">
-      <c r="A77" s="41">
+    <row r="77" s="39" customFormat="1" spans="1:12">
+      <c r="A77" s="39">
         <v>76</v>
       </c>
-      <c r="B77" s="42" t="s">
+      <c r="B77" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="C77" s="41">
+      <c r="C77" s="39">
         <v>1612828800</v>
       </c>
-      <c r="D77" s="41">
+      <c r="D77" s="39">
         <v>1613404799</v>
       </c>
-      <c r="E77" s="51">
+      <c r="E77" s="49">
         <v>69</v>
       </c>
       <c r="F77" s="7"/>
@@ -8726,27 +8717,27 @@
       <c r="H77" s="7"/>
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
-      <c r="K77" s="41">
+      <c r="K77" s="39">
         <v>76</v>
       </c>
-      <c r="L77" s="41">
+      <c r="L77" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="78" s="41" customFormat="1" spans="1:12">
-      <c r="A78" s="41">
+    <row r="78" s="39" customFormat="1" spans="1:12">
+      <c r="A78" s="39">
         <v>77</v>
       </c>
-      <c r="B78" s="42" t="s">
+      <c r="B78" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="C78" s="41">
+      <c r="C78" s="39">
         <v>1613433600</v>
       </c>
-      <c r="D78" s="41">
+      <c r="D78" s="39">
         <v>1614009599</v>
       </c>
-      <c r="E78" s="51">
+      <c r="E78" s="49">
         <v>70</v>
       </c>
       <c r="F78" s="7"/>
@@ -8754,27 +8745,27 @@
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
-      <c r="K78" s="41">
+      <c r="K78" s="39">
         <v>77</v>
       </c>
-      <c r="L78" s="41">
+      <c r="L78" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="79" s="41" customFormat="1" spans="1:12">
-      <c r="A79" s="41">
+    <row r="79" s="39" customFormat="1" spans="1:12">
+      <c r="A79" s="39">
         <v>78</v>
       </c>
-      <c r="B79" s="42" t="s">
+      <c r="B79" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="C79" s="41">
+      <c r="C79" s="39">
         <v>1613433600</v>
       </c>
-      <c r="D79" s="41">
+      <c r="D79" s="39">
         <v>1614009599</v>
       </c>
-      <c r="E79" s="51">
+      <c r="E79" s="49">
         <v>71</v>
       </c>
       <c r="F79" s="7"/>
@@ -8782,27 +8773,27 @@
       <c r="H79" s="7"/>
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
-      <c r="K79" s="41">
+      <c r="K79" s="39">
         <v>77</v>
       </c>
-      <c r="L79" s="41">
+      <c r="L79" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="80" s="41" customFormat="1" spans="1:12">
-      <c r="A80" s="41">
+    <row r="80" s="39" customFormat="1" spans="1:12">
+      <c r="A80" s="39">
         <v>79</v>
       </c>
-      <c r="B80" s="41" t="s">
+      <c r="B80" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="C80" s="41">
+      <c r="C80" s="39">
         <v>1614643200</v>
       </c>
-      <c r="D80" s="41">
+      <c r="D80" s="39">
         <v>1615219199</v>
       </c>
-      <c r="E80" s="51">
+      <c r="E80" s="49">
         <v>72</v>
       </c>
       <c r="F80" s="7"/>
@@ -8810,27 +8801,27 @@
       <c r="H80" s="7"/>
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
-      <c r="K80" s="41">
+      <c r="K80" s="39">
         <v>78</v>
       </c>
-      <c r="L80" s="41">
+      <c r="L80" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="81" s="41" customFormat="1" spans="1:12">
-      <c r="A81" s="41">
+    <row r="81" s="39" customFormat="1" spans="1:12">
+      <c r="A81" s="39">
         <v>80</v>
       </c>
-      <c r="B81" s="41" t="s">
+      <c r="B81" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="C81" s="41">
+      <c r="C81" s="39">
         <v>1614643200</v>
       </c>
-      <c r="D81" s="41">
+      <c r="D81" s="39">
         <v>1615219199</v>
       </c>
-      <c r="E81" s="51">
+      <c r="E81" s="49">
         <v>73</v>
       </c>
       <c r="F81" s="7"/>
@@ -8838,27 +8829,27 @@
       <c r="H81" s="7"/>
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
-      <c r="K81" s="41">
+      <c r="K81" s="39">
         <v>79</v>
       </c>
-      <c r="L81" s="41">
+      <c r="L81" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="82" s="41" customFormat="1" spans="1:12">
-      <c r="A82" s="41">
+    <row r="82" s="39" customFormat="1" spans="1:12">
+      <c r="A82" s="39">
         <v>81</v>
       </c>
-      <c r="B82" s="41" t="s">
+      <c r="B82" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="C82" s="41">
+      <c r="C82" s="39">
         <v>1614643200</v>
       </c>
-      <c r="D82" s="41">
+      <c r="D82" s="39">
         <v>1615219199</v>
       </c>
-      <c r="E82" s="51">
+      <c r="E82" s="49">
         <v>74</v>
       </c>
       <c r="F82" s="7"/>
@@ -8866,15 +8857,15 @@
       <c r="H82" s="7"/>
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
-      <c r="K82" s="41">
+      <c r="K82" s="39">
         <v>80</v>
       </c>
-      <c r="L82" s="41">
+      <c r="L82" s="39">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:12">
-      <c r="A83" s="41">
+      <c r="A83" s="39">
         <v>82</v>
       </c>
       <c r="B83" s="13" t="s">
@@ -8889,15 +8880,15 @@
       <c r="E83" s="14">
         <v>75</v>
       </c>
-      <c r="K83" s="40">
+      <c r="K83" s="38">
         <v>81</v>
       </c>
-      <c r="L83" s="40">
+      <c r="L83" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:12">
-      <c r="A84" s="41">
+      <c r="A84" s="39">
         <v>83</v>
       </c>
       <c r="B84" s="13" t="s">
@@ -8912,15 +8903,15 @@
       <c r="E84" s="14">
         <v>76</v>
       </c>
-      <c r="K84" s="40">
+      <c r="K84" s="38">
         <v>82</v>
       </c>
-      <c r="L84" s="40">
+      <c r="L84" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:12">
-      <c r="A85" s="41">
+      <c r="A85" s="39">
         <v>84</v>
       </c>
       <c r="B85" s="13" t="s">
@@ -8935,15 +8926,15 @@
       <c r="E85" s="14">
         <v>77</v>
       </c>
-      <c r="K85" s="40">
+      <c r="K85" s="38">
         <v>83</v>
       </c>
-      <c r="L85" s="40">
+      <c r="L85" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:12">
-      <c r="A86" s="41">
+      <c r="A86" s="39">
         <v>85</v>
       </c>
       <c r="B86" s="13" t="s">
@@ -8958,15 +8949,15 @@
       <c r="E86" s="14">
         <v>78</v>
       </c>
-      <c r="K86" s="40">
+      <c r="K86" s="38">
         <v>84</v>
       </c>
-      <c r="L86" s="40">
+      <c r="L86" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:12">
-      <c r="A87" s="41">
+      <c r="A87" s="39">
         <v>86</v>
       </c>
       <c r="B87" s="13" t="s">
@@ -8981,15 +8972,15 @@
       <c r="E87" s="14">
         <v>79</v>
       </c>
-      <c r="K87" s="40">
+      <c r="K87" s="38">
         <v>85</v>
       </c>
-      <c r="L87" s="40">
+      <c r="L87" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="88" s="48" customFormat="1" spans="1:12">
-      <c r="A88" s="41">
+    <row r="88" s="46" customFormat="1" spans="1:12">
+      <c r="A88" s="39">
         <v>87</v>
       </c>
       <c r="B88" s="30" t="s">
@@ -9001,87 +8992,133 @@
       <c r="D88" s="29">
         <v>1616428799</v>
       </c>
-      <c r="E88" s="55">
+      <c r="E88" s="53">
         <v>80</v>
       </c>
-      <c r="F88" s="56"/>
-      <c r="G88" s="56"/>
-      <c r="H88" s="56"/>
-      <c r="I88" s="56"/>
-      <c r="J88" s="56"/>
-      <c r="K88" s="48">
+      <c r="F88" s="54"/>
+      <c r="G88" s="54"/>
+      <c r="H88" s="54"/>
+      <c r="I88" s="54"/>
+      <c r="J88" s="54"/>
+      <c r="K88" s="46">
         <v>86</v>
       </c>
-      <c r="L88" s="48">
+      <c r="L88" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:12">
-      <c r="A89" s="41">
+      <c r="A89" s="39">
         <v>88</v>
       </c>
-      <c r="B89" s="40" t="s">
+      <c r="B89" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="C89" s="40">
+      <c r="C89" s="38">
         <v>1617667200</v>
       </c>
-      <c r="D89" s="40">
+      <c r="D89" s="38">
         <v>1618243199</v>
       </c>
       <c r="E89" s="14">
         <v>81</v>
       </c>
-      <c r="K89" s="40">
+      <c r="K89" s="38">
         <v>87</v>
       </c>
-      <c r="L89" s="40">
+      <c r="L89" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:12">
-      <c r="A90" s="41">
+      <c r="A90" s="39">
         <v>89</v>
       </c>
-      <c r="B90" s="40" t="s">
+      <c r="B90" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="C90" s="52">
+      <c r="C90" s="50">
         <v>1619481600</v>
       </c>
-      <c r="D90" s="52">
+      <c r="D90" s="50">
         <v>1620662399</v>
       </c>
       <c r="E90" s="14">
         <v>82</v>
       </c>
-      <c r="K90" s="40">
+      <c r="K90" s="38">
         <v>88</v>
       </c>
-      <c r="L90" s="40">
+      <c r="L90" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:12">
-      <c r="A91" s="41">
+      <c r="A91" s="39">
         <v>90</v>
       </c>
-      <c r="B91" s="40" t="s">
+      <c r="B91" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="C91" s="57">
+      <c r="C91" s="50">
         <v>1621296000</v>
       </c>
-      <c r="D91" s="57">
+      <c r="D91" s="50">
         <v>1621871999</v>
       </c>
       <c r="E91" s="14">
         <v>83</v>
       </c>
-      <c r="K91" s="40">
+      <c r="K91" s="38">
         <v>89</v>
       </c>
-      <c r="L91" s="40">
+      <c r="L91" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" s="39">
+        <v>91</v>
+      </c>
+      <c r="B92" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C92" s="50">
+        <v>1621296000</v>
+      </c>
+      <c r="D92" s="50">
+        <v>1621871999</v>
+      </c>
+      <c r="E92" s="14">
+        <v>83</v>
+      </c>
+      <c r="K92" s="38">
+        <v>89</v>
+      </c>
+      <c r="L92" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" s="39">
+        <v>92</v>
+      </c>
+      <c r="B93" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C93" s="50">
+        <v>1621296000</v>
+      </c>
+      <c r="D93" s="50">
+        <v>1621871999</v>
+      </c>
+      <c r="E93" s="14">
+        <v>83</v>
+      </c>
+      <c r="K93" s="38">
+        <v>89</v>
+      </c>
+      <c r="L93" s="38">
         <v>1</v>
       </c>
     </row>
@@ -9099,15 +9136,15 @@
   <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D88" sqref="D88"/>
+      <selection pane="bottomLeft" activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="3" max="3" width="36.75" style="40" customWidth="1"/>
-    <col min="4" max="4" width="25.5" style="40" customWidth="1"/>
+    <col min="3" max="3" width="36.75" style="38" customWidth="1"/>
+    <col min="4" max="4" width="25.5" style="38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -9456,7 +9493,7 @@
       <c r="C25" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="D25" s="41">
+      <c r="D25" s="39">
         <v>1</v>
       </c>
     </row>
@@ -9470,7 +9507,7 @@
       <c r="C26" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="D26" s="41">
+      <c r="D26" s="39">
         <v>1</v>
       </c>
     </row>
@@ -9607,24 +9644,24 @@
       <c r="B36" s="7">
         <v>35</v>
       </c>
-      <c r="C36" s="42" t="s">
+      <c r="C36" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="D36" s="41">
+      <c r="D36" s="39">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="43">
+      <c r="A37" s="41">
         <v>36</v>
       </c>
-      <c r="B37" s="43">
+      <c r="B37" s="41">
         <v>36</v>
       </c>
-      <c r="C37" s="44" t="s">
+      <c r="C37" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="D37" s="45">
+      <c r="D37" s="43">
         <v>1</v>
       </c>
     </row>
@@ -9635,10 +9672,10 @@
       <c r="B38" s="7">
         <v>37</v>
       </c>
-      <c r="C38" s="46" t="s">
+      <c r="C38" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="D38" s="40">
+      <c r="D38" s="38">
         <v>1</v>
       </c>
     </row>
@@ -9649,10 +9686,10 @@
       <c r="B39" s="7">
         <v>38</v>
       </c>
-      <c r="C39" s="46" t="s">
+      <c r="C39" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="D39" s="40">
+      <c r="D39" s="38">
         <v>100</v>
       </c>
     </row>
@@ -9663,10 +9700,10 @@
       <c r="B40" s="7">
         <v>39</v>
       </c>
-      <c r="C40" s="46" t="s">
+      <c r="C40" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="D40" s="40">
+      <c r="D40" s="38">
         <v>100</v>
       </c>
     </row>
@@ -9677,10 +9714,10 @@
       <c r="B41" s="7">
         <v>40</v>
       </c>
-      <c r="C41" s="46" t="s">
+      <c r="C41" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="D41" s="40">
+      <c r="D41" s="38">
         <v>100</v>
       </c>
     </row>
@@ -9691,10 +9728,10 @@
       <c r="B42" s="7">
         <v>41</v>
       </c>
-      <c r="C42" s="40" t="s">
+      <c r="C42" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="D42" s="40">
+      <c r="D42" s="38">
         <v>1</v>
       </c>
     </row>
@@ -9708,7 +9745,7 @@
       <c r="C43" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="D43" s="41">
+      <c r="D43" s="39">
         <v>1</v>
       </c>
     </row>
@@ -9722,7 +9759,7 @@
       <c r="C44" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="D44" s="41">
+      <c r="D44" s="39">
         <v>1</v>
       </c>
     </row>
@@ -9736,7 +9773,7 @@
       <c r="C45" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="D45" s="41">
+      <c r="D45" s="39">
         <v>1</v>
       </c>
     </row>
@@ -9750,7 +9787,7 @@
       <c r="C46" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="D46" s="41">
+      <c r="D46" s="39">
         <v>1</v>
       </c>
     </row>
@@ -9764,7 +9801,7 @@
       <c r="C47" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="D47" s="41">
+      <c r="D47" s="39">
         <v>1</v>
       </c>
     </row>
@@ -9778,7 +9815,7 @@
       <c r="C48" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D48" s="41">
+      <c r="D48" s="39">
         <v>1</v>
       </c>
     </row>
@@ -9789,10 +9826,10 @@
       <c r="B49" s="7">
         <v>48</v>
       </c>
-      <c r="C49" s="47" t="s">
+      <c r="C49" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="D49" s="41">
+      <c r="D49" s="39">
         <v>1</v>
       </c>
     </row>
@@ -9803,10 +9840,10 @@
       <c r="B50" s="7">
         <v>49</v>
       </c>
-      <c r="C50" s="47" t="s">
+      <c r="C50" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="D50" s="41">
+      <c r="D50" s="39">
         <v>1</v>
       </c>
     </row>
@@ -9817,10 +9854,10 @@
       <c r="B51" s="7">
         <v>50</v>
       </c>
-      <c r="C51" s="47" t="s">
+      <c r="C51" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="D51" s="41">
+      <c r="D51" s="39">
         <v>1</v>
       </c>
     </row>
@@ -9831,10 +9868,10 @@
       <c r="B52" s="7">
         <v>51</v>
       </c>
-      <c r="C52" s="41" t="s">
+      <c r="C52" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="D52" s="41">
+      <c r="D52" s="39">
         <v>1</v>
       </c>
     </row>
@@ -9845,10 +9882,10 @@
       <c r="B53" s="7">
         <v>52</v>
       </c>
-      <c r="C53" s="41" t="s">
+      <c r="C53" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="D53" s="41">
+      <c r="D53" s="39">
         <v>1</v>
       </c>
     </row>
@@ -9859,10 +9896,10 @@
       <c r="B54" s="7">
         <v>53</v>
       </c>
-      <c r="C54" s="41" t="s">
+      <c r="C54" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="D54" s="41">
+      <c r="D54" s="39">
         <v>1</v>
       </c>
     </row>
@@ -9873,10 +9910,10 @@
       <c r="B55" s="7">
         <v>54</v>
       </c>
-      <c r="C55" s="41" t="s">
+      <c r="C55" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="D55" s="41">
+      <c r="D55" s="39">
         <v>1</v>
       </c>
     </row>
@@ -9890,7 +9927,7 @@
       <c r="C56" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="D56" s="41">
+      <c r="D56" s="39">
         <v>1</v>
       </c>
     </row>
@@ -9901,10 +9938,10 @@
       <c r="B57" s="7">
         <v>56</v>
       </c>
-      <c r="C57" s="42" t="s">
+      <c r="C57" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="D57" s="41">
+      <c r="D57" s="39">
         <v>100</v>
       </c>
     </row>
@@ -9915,10 +9952,10 @@
       <c r="B58" s="7">
         <v>57</v>
       </c>
-      <c r="C58" s="42" t="s">
+      <c r="C58" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="D58" s="41">
+      <c r="D58" s="39">
         <v>100</v>
       </c>
     </row>
@@ -9932,7 +9969,7 @@
       <c r="C59" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="D59" s="41">
+      <c r="D59" s="39">
         <v>1</v>
       </c>
     </row>
@@ -9946,7 +9983,7 @@
       <c r="C60" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="D60" s="41">
+      <c r="D60" s="39">
         <v>1</v>
       </c>
     </row>
@@ -9960,7 +9997,7 @@
       <c r="C61" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="D61" s="41">
+      <c r="D61" s="39">
         <v>1</v>
       </c>
     </row>
@@ -9974,7 +10011,7 @@
       <c r="C62" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="D62" s="41">
+      <c r="D62" s="39">
         <v>1</v>
       </c>
     </row>
@@ -9988,7 +10025,7 @@
       <c r="C63" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="D63" s="41">
+      <c r="D63" s="39">
         <v>1</v>
       </c>
     </row>
@@ -10002,7 +10039,7 @@
       <c r="C64" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D64" s="41">
+      <c r="D64" s="39">
         <v>1</v>
       </c>
     </row>
@@ -10027,10 +10064,10 @@
       <c r="B66" s="7">
         <v>65</v>
       </c>
-      <c r="C66" s="41" t="s">
+      <c r="C66" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="D66" s="41">
+      <c r="D66" s="39">
         <v>1</v>
       </c>
     </row>
@@ -10041,10 +10078,10 @@
       <c r="B67" s="7">
         <v>66</v>
       </c>
-      <c r="C67" s="41" t="s">
+      <c r="C67" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="D67" s="41">
+      <c r="D67" s="39">
         <v>1</v>
       </c>
     </row>
@@ -10055,10 +10092,10 @@
       <c r="B68" s="7">
         <v>67</v>
       </c>
-      <c r="C68" s="41" t="s">
+      <c r="C68" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="D68" s="41">
+      <c r="D68" s="39">
         <v>1</v>
       </c>
     </row>
@@ -10069,10 +10106,10 @@
       <c r="B69" s="7">
         <v>68</v>
       </c>
-      <c r="C69" s="41" t="s">
+      <c r="C69" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="D69" s="41">
+      <c r="D69" s="39">
         <v>1</v>
       </c>
     </row>
@@ -10083,10 +10120,10 @@
       <c r="B70" s="7">
         <v>69</v>
       </c>
-      <c r="C70" s="41" t="s">
+      <c r="C70" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="D70" s="41">
+      <c r="D70" s="39">
         <v>3</v>
       </c>
     </row>
@@ -10097,10 +10134,10 @@
       <c r="B71" s="7">
         <v>70</v>
       </c>
-      <c r="C71" s="41" t="s">
+      <c r="C71" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="D71" s="41">
+      <c r="D71" s="39">
         <v>50</v>
       </c>
     </row>
@@ -10111,10 +10148,10 @@
       <c r="B72" s="7">
         <v>71</v>
       </c>
-      <c r="C72" s="41" t="s">
+      <c r="C72" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="D72" s="41">
+      <c r="D72" s="39">
         <v>50</v>
       </c>
     </row>
@@ -10125,10 +10162,10 @@
       <c r="B73" s="7">
         <v>72</v>
       </c>
-      <c r="C73" s="41" t="s">
+      <c r="C73" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="D73" s="41">
+      <c r="D73" s="39">
         <v>1</v>
       </c>
     </row>
@@ -10139,10 +10176,10 @@
       <c r="B74" s="7">
         <v>73</v>
       </c>
-      <c r="C74" s="41" t="s">
+      <c r="C74" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="D74" s="41">
+      <c r="D74" s="39">
         <v>1</v>
       </c>
     </row>
@@ -10153,10 +10190,10 @@
       <c r="B75" s="7">
         <v>74</v>
       </c>
-      <c r="C75" s="41" t="s">
+      <c r="C75" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="D75" s="41">
+      <c r="D75" s="39">
         <v>1</v>
       </c>
     </row>
@@ -10167,10 +10204,10 @@
       <c r="B76" s="7">
         <v>75</v>
       </c>
-      <c r="C76" s="40" t="s">
+      <c r="C76" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="D76" s="40">
+      <c r="D76" s="38">
         <v>1</v>
       </c>
     </row>
@@ -10181,10 +10218,10 @@
       <c r="B77" s="7">
         <v>76</v>
       </c>
-      <c r="C77" s="40" t="s">
+      <c r="C77" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="D77" s="40">
+      <c r="D77" s="38">
         <v>1</v>
       </c>
     </row>
@@ -10195,10 +10232,10 @@
       <c r="B78" s="7">
         <v>77</v>
       </c>
-      <c r="C78" s="40" t="s">
+      <c r="C78" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="D78" s="40">
+      <c r="D78" s="38">
         <v>1</v>
       </c>
     </row>
@@ -10209,10 +10246,10 @@
       <c r="B79" s="7">
         <v>78</v>
       </c>
-      <c r="C79" s="40" t="s">
+      <c r="C79" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="D79" s="40">
+      <c r="D79" s="38">
         <v>1</v>
       </c>
     </row>
@@ -10223,10 +10260,10 @@
       <c r="B80" s="7">
         <v>79</v>
       </c>
-      <c r="C80" s="46" t="s">
+      <c r="C80" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="D80" s="40">
+      <c r="D80" s="38">
         <v>1</v>
       </c>
     </row>
@@ -10237,10 +10274,10 @@
       <c r="B81" s="7">
         <v>80</v>
       </c>
-      <c r="C81" s="48" t="s">
+      <c r="C81" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="D81" s="48">
+      <c r="D81" s="46">
         <v>1</v>
       </c>
     </row>
@@ -10251,10 +10288,10 @@
       <c r="B82" s="7">
         <v>81</v>
       </c>
-      <c r="C82" s="40" t="s">
+      <c r="C82" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="D82" s="40">
+      <c r="D82" s="38">
         <v>300</v>
       </c>
     </row>
@@ -10268,7 +10305,7 @@
       <c r="C83" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="D83" s="40">
+      <c r="D83" s="38">
         <v>1</v>
       </c>
     </row>
@@ -10279,10 +10316,10 @@
       <c r="B84">
         <v>83</v>
       </c>
-      <c r="C84" s="40" t="s">
+      <c r="C84" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="D84" s="40">
+      <c r="D84" s="38">
         <v>300</v>
       </c>
     </row>
@@ -10341,11 +10378,11 @@
   <dimension ref="A1:E570"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B537" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B543" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C570" sqref="C570"/>
+      <selection pane="bottomRight" activeCell="D569" sqref="D569"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -13441,506 +13478,506 @@
       </c>
     </row>
     <row r="221" spans="1:4">
-      <c r="A221" s="39">
+      <c r="A221" s="37">
         <v>220</v>
       </c>
-      <c r="B221" s="39">
+      <c r="B221" s="37">
         <v>28</v>
       </c>
-      <c r="C221" s="39">
+      <c r="C221" s="37">
         <v>11601</v>
       </c>
-      <c r="D221" s="39">
+      <c r="D221" s="37">
         <v>32</v>
       </c>
     </row>
     <row r="222" spans="1:4">
-      <c r="A222" s="39">
+      <c r="A222" s="37">
         <v>221</v>
       </c>
-      <c r="B222" s="39">
+      <c r="B222" s="37">
         <v>28</v>
       </c>
-      <c r="C222" s="39">
+      <c r="C222" s="37">
         <v>11602</v>
       </c>
-      <c r="D222" s="39">
+      <c r="D222" s="37">
         <v>32</v>
       </c>
     </row>
     <row r="223" spans="1:4">
-      <c r="A223" s="39">
+      <c r="A223" s="37">
         <v>222</v>
       </c>
-      <c r="B223" s="39">
+      <c r="B223" s="37">
         <v>28</v>
       </c>
-      <c r="C223" s="39">
+      <c r="C223" s="37">
         <v>11603</v>
       </c>
-      <c r="D223" s="39">
+      <c r="D223" s="37">
         <v>32</v>
       </c>
     </row>
     <row r="224" spans="1:4">
-      <c r="A224" s="39">
+      <c r="A224" s="37">
         <v>223</v>
       </c>
-      <c r="B224" s="39">
+      <c r="B224" s="37">
         <v>28</v>
       </c>
-      <c r="C224" s="39">
+      <c r="C224" s="37">
         <v>11604</v>
       </c>
-      <c r="D224" s="39">
+      <c r="D224" s="37">
         <v>4</v>
       </c>
     </row>
     <row r="225" spans="1:4">
-      <c r="A225" s="39">
+      <c r="A225" s="37">
         <v>224</v>
       </c>
-      <c r="B225" s="39">
+      <c r="B225" s="37">
         <v>29</v>
       </c>
-      <c r="C225" s="39">
+      <c r="C225" s="37">
         <v>11611</v>
       </c>
-      <c r="D225" s="39">
+      <c r="D225" s="37">
         <v>32</v>
       </c>
     </row>
     <row r="226" spans="1:4">
-      <c r="A226" s="39">
+      <c r="A226" s="37">
         <v>225</v>
       </c>
-      <c r="B226" s="39">
+      <c r="B226" s="37">
         <v>29</v>
       </c>
-      <c r="C226" s="39">
+      <c r="C226" s="37">
         <v>11612</v>
       </c>
-      <c r="D226" s="39">
+      <c r="D226" s="37">
         <v>32</v>
       </c>
     </row>
     <row r="227" spans="1:4">
-      <c r="A227" s="39">
+      <c r="A227" s="37">
         <v>226</v>
       </c>
-      <c r="B227" s="39">
+      <c r="B227" s="37">
         <v>29</v>
       </c>
-      <c r="C227" s="39">
+      <c r="C227" s="37">
         <v>11613</v>
       </c>
-      <c r="D227" s="39">
+      <c r="D227" s="37">
         <v>32</v>
       </c>
     </row>
     <row r="228" spans="1:4">
-      <c r="A228" s="39">
+      <c r="A228" s="37">
         <v>227</v>
       </c>
-      <c r="B228" s="39">
+      <c r="B228" s="37">
         <v>29</v>
       </c>
-      <c r="C228" s="39">
+      <c r="C228" s="37">
         <v>11614</v>
       </c>
-      <c r="D228" s="39">
+      <c r="D228" s="37">
         <v>4</v>
       </c>
     </row>
     <row r="229" spans="1:4">
-      <c r="A229" s="39">
+      <c r="A229" s="37">
         <v>228</v>
       </c>
-      <c r="B229" s="39">
+      <c r="B229" s="37">
         <v>30</v>
       </c>
-      <c r="C229" s="39">
+      <c r="C229" s="37">
         <v>11621</v>
       </c>
-      <c r="D229" s="39">
+      <c r="D229" s="37">
         <v>32</v>
       </c>
     </row>
     <row r="230" spans="1:4">
-      <c r="A230" s="39">
+      <c r="A230" s="37">
         <v>229</v>
       </c>
-      <c r="B230" s="39">
+      <c r="B230" s="37">
         <v>30</v>
       </c>
-      <c r="C230" s="39">
+      <c r="C230" s="37">
         <v>11622</v>
       </c>
-      <c r="D230" s="39">
+      <c r="D230" s="37">
         <v>32</v>
       </c>
     </row>
     <row r="231" spans="1:4">
-      <c r="A231" s="39">
+      <c r="A231" s="37">
         <v>230</v>
       </c>
-      <c r="B231" s="39">
+      <c r="B231" s="37">
         <v>30</v>
       </c>
-      <c r="C231" s="39">
+      <c r="C231" s="37">
         <v>11623</v>
       </c>
-      <c r="D231" s="39">
+      <c r="D231" s="37">
         <v>32</v>
       </c>
     </row>
     <row r="232" spans="1:4">
-      <c r="A232" s="39">
+      <c r="A232" s="37">
         <v>231</v>
       </c>
-      <c r="B232" s="39">
+      <c r="B232" s="37">
         <v>30</v>
       </c>
-      <c r="C232" s="39">
+      <c r="C232" s="37">
         <v>11624</v>
       </c>
-      <c r="D232" s="39">
+      <c r="D232" s="37">
         <v>4</v>
       </c>
     </row>
     <row r="233" spans="1:4">
-      <c r="A233" s="39">
+      <c r="A233" s="37">
         <v>232</v>
       </c>
-      <c r="B233" s="39">
+      <c r="B233" s="37">
         <v>31</v>
       </c>
-      <c r="C233" s="39">
+      <c r="C233" s="37">
         <v>11631</v>
       </c>
-      <c r="D233" s="39">
+      <c r="D233" s="37">
         <v>32</v>
       </c>
     </row>
     <row r="234" spans="1:4">
-      <c r="A234" s="39">
+      <c r="A234" s="37">
         <v>233</v>
       </c>
-      <c r="B234" s="39">
+      <c r="B234" s="37">
         <v>31</v>
       </c>
-      <c r="C234" s="39">
+      <c r="C234" s="37">
         <v>11632</v>
       </c>
-      <c r="D234" s="39">
+      <c r="D234" s="37">
         <v>32</v>
       </c>
     </row>
     <row r="235" spans="1:4">
-      <c r="A235" s="39">
+      <c r="A235" s="37">
         <v>234</v>
       </c>
-      <c r="B235" s="39">
+      <c r="B235" s="37">
         <v>31</v>
       </c>
-      <c r="C235" s="39">
+      <c r="C235" s="37">
         <v>11633</v>
       </c>
-      <c r="D235" s="39">
+      <c r="D235" s="37">
         <v>32</v>
       </c>
     </row>
     <row r="236" spans="1:4">
-      <c r="A236" s="39">
+      <c r="A236" s="37">
         <v>235</v>
       </c>
-      <c r="B236" s="39">
+      <c r="B236" s="37">
         <v>31</v>
       </c>
-      <c r="C236" s="39">
+      <c r="C236" s="37">
         <v>11634</v>
       </c>
-      <c r="D236" s="39">
+      <c r="D236" s="37">
         <v>4</v>
       </c>
     </row>
     <row r="237" spans="1:4">
-      <c r="A237" s="39">
+      <c r="A237" s="37">
         <v>236</v>
       </c>
-      <c r="B237" s="39">
+      <c r="B237" s="37">
         <v>32</v>
       </c>
-      <c r="C237" s="39">
+      <c r="C237" s="37">
         <v>11641</v>
       </c>
-      <c r="D237" s="39">
+      <c r="D237" s="37">
         <v>32</v>
       </c>
     </row>
     <row r="238" spans="1:4">
-      <c r="A238" s="39">
+      <c r="A238" s="37">
         <v>237</v>
       </c>
-      <c r="B238" s="39">
+      <c r="B238" s="37">
         <v>32</v>
       </c>
-      <c r="C238" s="39">
+      <c r="C238" s="37">
         <v>11642</v>
       </c>
-      <c r="D238" s="39">
+      <c r="D238" s="37">
         <v>32</v>
       </c>
     </row>
     <row r="239" spans="1:4">
-      <c r="A239" s="39">
+      <c r="A239" s="37">
         <v>238</v>
       </c>
-      <c r="B239" s="39">
+      <c r="B239" s="37">
         <v>32</v>
       </c>
-      <c r="C239" s="39">
+      <c r="C239" s="37">
         <v>11643</v>
       </c>
-      <c r="D239" s="39">
+      <c r="D239" s="37">
         <v>32</v>
       </c>
     </row>
     <row r="240" spans="1:4">
-      <c r="A240" s="39">
+      <c r="A240" s="37">
         <v>239</v>
       </c>
-      <c r="B240" s="39">
+      <c r="B240" s="37">
         <v>32</v>
       </c>
-      <c r="C240" s="39">
+      <c r="C240" s="37">
         <v>11644</v>
       </c>
-      <c r="D240" s="39">
+      <c r="D240" s="37">
         <v>4</v>
       </c>
     </row>
     <row r="241" spans="1:4">
-      <c r="A241" s="39">
+      <c r="A241" s="37">
         <v>240</v>
       </c>
-      <c r="B241" s="39">
+      <c r="B241" s="37">
         <v>33</v>
       </c>
-      <c r="C241" s="39">
+      <c r="C241" s="37">
         <v>11651</v>
       </c>
-      <c r="D241" s="39">
+      <c r="D241" s="37">
         <v>32</v>
       </c>
     </row>
     <row r="242" spans="1:4">
-      <c r="A242" s="39">
+      <c r="A242" s="37">
         <v>241</v>
       </c>
-      <c r="B242" s="39">
+      <c r="B242" s="37">
         <v>33</v>
       </c>
-      <c r="C242" s="39">
+      <c r="C242" s="37">
         <v>11652</v>
       </c>
-      <c r="D242" s="39">
+      <c r="D242" s="37">
         <v>32</v>
       </c>
     </row>
     <row r="243" spans="1:4">
-      <c r="A243" s="39">
+      <c r="A243" s="37">
         <v>242</v>
       </c>
-      <c r="B243" s="39">
+      <c r="B243" s="37">
         <v>33</v>
       </c>
-      <c r="C243" s="39">
+      <c r="C243" s="37">
         <v>11653</v>
       </c>
-      <c r="D243" s="39">
+      <c r="D243" s="37">
         <v>32</v>
       </c>
     </row>
     <row r="244" spans="1:4">
-      <c r="A244" s="39">
+      <c r="A244" s="37">
         <v>243</v>
       </c>
-      <c r="B244" s="39">
+      <c r="B244" s="37">
         <v>33</v>
       </c>
-      <c r="C244" s="39">
+      <c r="C244" s="37">
         <v>11654</v>
       </c>
-      <c r="D244" s="39">
+      <c r="D244" s="37">
         <v>4</v>
       </c>
     </row>
     <row r="245" spans="1:4">
-      <c r="A245" s="39">
+      <c r="A245" s="37">
         <v>244</v>
       </c>
-      <c r="B245" s="39">
+      <c r="B245" s="37">
         <v>34</v>
       </c>
-      <c r="C245" s="39">
+      <c r="C245" s="37">
         <v>11661</v>
       </c>
-      <c r="D245" s="39">
+      <c r="D245" s="37">
         <v>32</v>
       </c>
     </row>
     <row r="246" spans="1:4">
-      <c r="A246" s="39">
+      <c r="A246" s="37">
         <v>245</v>
       </c>
-      <c r="B246" s="39">
+      <c r="B246" s="37">
         <v>34</v>
       </c>
-      <c r="C246" s="39">
+      <c r="C246" s="37">
         <v>11662</v>
       </c>
-      <c r="D246" s="39">
+      <c r="D246" s="37">
         <v>32</v>
       </c>
     </row>
     <row r="247" spans="1:4">
-      <c r="A247" s="39">
+      <c r="A247" s="37">
         <v>246</v>
       </c>
-      <c r="B247" s="39">
+      <c r="B247" s="37">
         <v>34</v>
       </c>
-      <c r="C247" s="39">
+      <c r="C247" s="37">
         <v>11663</v>
       </c>
-      <c r="D247" s="39">
+      <c r="D247" s="37">
         <v>32</v>
       </c>
     </row>
     <row r="248" spans="1:4">
-      <c r="A248" s="39">
+      <c r="A248" s="37">
         <v>247</v>
       </c>
-      <c r="B248" s="39">
+      <c r="B248" s="37">
         <v>34</v>
       </c>
-      <c r="C248" s="39">
+      <c r="C248" s="37">
         <v>11664</v>
       </c>
-      <c r="D248" s="39">
+      <c r="D248" s="37">
         <v>4</v>
       </c>
     </row>
     <row r="249" spans="1:4">
-      <c r="A249" s="39">
+      <c r="A249" s="37">
         <v>248</v>
       </c>
-      <c r="B249" s="39">
+      <c r="B249" s="37">
         <v>35</v>
       </c>
-      <c r="C249" s="39">
+      <c r="C249" s="37">
         <v>11671</v>
       </c>
-      <c r="D249" s="39">
+      <c r="D249" s="37">
         <v>32</v>
       </c>
     </row>
     <row r="250" spans="1:4">
-      <c r="A250" s="39">
+      <c r="A250" s="37">
         <v>249</v>
       </c>
-      <c r="B250" s="39">
+      <c r="B250" s="37">
         <v>35</v>
       </c>
-      <c r="C250" s="39">
+      <c r="C250" s="37">
         <v>11672</v>
       </c>
-      <c r="D250" s="39">
+      <c r="D250" s="37">
         <v>32</v>
       </c>
     </row>
     <row r="251" spans="1:4">
-      <c r="A251" s="39">
+      <c r="A251" s="37">
         <v>250</v>
       </c>
-      <c r="B251" s="39">
+      <c r="B251" s="37">
         <v>35</v>
       </c>
-      <c r="C251" s="39">
+      <c r="C251" s="37">
         <v>11673</v>
       </c>
-      <c r="D251" s="39">
+      <c r="D251" s="37">
         <v>32</v>
       </c>
     </row>
     <row r="252" spans="1:4">
-      <c r="A252" s="39">
+      <c r="A252" s="37">
         <v>251</v>
       </c>
-      <c r="B252" s="39">
+      <c r="B252" s="37">
         <v>35</v>
       </c>
-      <c r="C252" s="39">
+      <c r="C252" s="37">
         <v>11674</v>
       </c>
-      <c r="D252" s="39">
+      <c r="D252" s="37">
         <v>4</v>
       </c>
     </row>
     <row r="253" spans="1:4">
-      <c r="A253" s="39">
+      <c r="A253" s="37">
         <v>252</v>
       </c>
-      <c r="B253" s="39">
+      <c r="B253" s="37">
         <v>36</v>
       </c>
-      <c r="C253" s="39">
+      <c r="C253" s="37">
         <v>11681</v>
       </c>
-      <c r="D253" s="39">
+      <c r="D253" s="37">
         <v>32</v>
       </c>
     </row>
     <row r="254" spans="1:4">
-      <c r="A254" s="39">
+      <c r="A254" s="37">
         <v>253</v>
       </c>
-      <c r="B254" s="39">
+      <c r="B254" s="37">
         <v>36</v>
       </c>
-      <c r="C254" s="39">
+      <c r="C254" s="37">
         <v>11682</v>
       </c>
-      <c r="D254" s="39">
+      <c r="D254" s="37">
         <v>32</v>
       </c>
     </row>
     <row r="255" spans="1:4">
-      <c r="A255" s="39">
+      <c r="A255" s="37">
         <v>254</v>
       </c>
-      <c r="B255" s="39">
+      <c r="B255" s="37">
         <v>36</v>
       </c>
-      <c r="C255" s="39">
+      <c r="C255" s="37">
         <v>11683</v>
       </c>
-      <c r="D255" s="39">
+      <c r="D255" s="37">
         <v>32</v>
       </c>
     </row>
     <row r="256" spans="1:4">
-      <c r="A256" s="39">
+      <c r="A256" s="37">
         <v>255</v>
       </c>
-      <c r="B256" s="39">
+      <c r="B256" s="37">
         <v>36</v>
       </c>
-      <c r="C256" s="39">
+      <c r="C256" s="37">
         <v>11684</v>
       </c>
-      <c r="D256" s="39">
+      <c r="D256" s="37">
         <v>4</v>
       </c>
     </row>
@@ -14379,58 +14416,58 @@
       </c>
     </row>
     <row r="288" spans="1:4">
-      <c r="A288" s="39">
+      <c r="A288" s="37">
         <v>287</v>
       </c>
-      <c r="B288" s="39">
+      <c r="B288" s="37">
         <v>41</v>
       </c>
-      <c r="C288" s="39">
+      <c r="C288" s="37">
         <v>11741</v>
       </c>
-      <c r="D288" s="39">
+      <c r="D288" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:4">
-      <c r="A289" s="39">
+      <c r="A289" s="37">
         <v>288</v>
       </c>
-      <c r="B289" s="39">
+      <c r="B289" s="37">
         <v>41</v>
       </c>
-      <c r="C289" s="39">
+      <c r="C289" s="37">
         <v>11742</v>
       </c>
-      <c r="D289" s="39">
+      <c r="D289" s="37">
         <v>10</v>
       </c>
     </row>
     <row r="290" spans="1:4">
-      <c r="A290" s="39">
+      <c r="A290" s="37">
         <v>289</v>
       </c>
-      <c r="B290" s="39">
+      <c r="B290" s="37">
         <v>41</v>
       </c>
-      <c r="C290" s="39">
+      <c r="C290" s="37">
         <v>11743</v>
       </c>
-      <c r="D290" s="39">
+      <c r="D290" s="37">
         <v>39</v>
       </c>
     </row>
     <row r="291" spans="1:4">
-      <c r="A291" s="39">
+      <c r="A291" s="37">
         <v>290</v>
       </c>
-      <c r="B291" s="39">
+      <c r="B291" s="37">
         <v>41</v>
       </c>
-      <c r="C291" s="39">
+      <c r="C291" s="37">
         <v>11744</v>
       </c>
-      <c r="D291" s="39">
+      <c r="D291" s="37">
         <v>50</v>
       </c>
     </row>
@@ -15260,129 +15297,129 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" s="38" customFormat="1" spans="1:4">
-      <c r="A351" s="38">
+    <row r="351" s="36" customFormat="1" spans="1:4">
+      <c r="A351" s="36">
         <v>350</v>
       </c>
-      <c r="B351" s="38">
+      <c r="B351" s="36">
         <v>57</v>
       </c>
-      <c r="C351" s="38">
+      <c r="C351" s="36">
         <v>11824</v>
       </c>
-      <c r="D351" s="38">
+      <c r="D351" s="36">
         <v>20</v>
       </c>
     </row>
-    <row r="352" s="38" customFormat="1" spans="1:4">
-      <c r="A352" s="38">
+    <row r="352" s="36" customFormat="1" spans="1:4">
+      <c r="A352" s="36">
         <v>351</v>
       </c>
-      <c r="B352" s="38">
+      <c r="B352" s="36">
         <v>57</v>
       </c>
-      <c r="C352" s="38">
+      <c r="C352" s="36">
         <v>11825</v>
       </c>
-      <c r="D352" s="38">
+      <c r="D352" s="36">
         <v>25</v>
       </c>
     </row>
-    <row r="353" s="38" customFormat="1" spans="1:4">
-      <c r="A353" s="38">
+    <row r="353" s="36" customFormat="1" spans="1:4">
+      <c r="A353" s="36">
         <v>352</v>
       </c>
-      <c r="B353" s="38">
+      <c r="B353" s="36">
         <v>57</v>
       </c>
-      <c r="C353" s="38">
+      <c r="C353" s="36">
         <v>11826</v>
       </c>
-      <c r="D353" s="38">
+      <c r="D353" s="36">
         <v>5</v>
       </c>
     </row>
-    <row r="354" s="38" customFormat="1" spans="1:4">
-      <c r="A354" s="38">
+    <row r="354" s="36" customFormat="1" spans="1:4">
+      <c r="A354" s="36">
         <v>353</v>
       </c>
-      <c r="B354" s="38">
+      <c r="B354" s="36">
         <v>57</v>
       </c>
-      <c r="C354" s="38">
+      <c r="C354" s="36">
         <v>11827</v>
       </c>
-      <c r="D354" s="38">
+      <c r="D354" s="36">
         <v>10</v>
       </c>
     </row>
-    <row r="355" s="38" customFormat="1" spans="1:4">
-      <c r="A355" s="38">
+    <row r="355" s="36" customFormat="1" spans="1:4">
+      <c r="A355" s="36">
         <v>354</v>
       </c>
-      <c r="B355" s="38">
+      <c r="B355" s="36">
         <v>57</v>
       </c>
-      <c r="C355" s="38">
+      <c r="C355" s="36">
         <v>11828</v>
       </c>
-      <c r="D355" s="38">
+      <c r="D355" s="36">
         <v>10</v>
       </c>
     </row>
-    <row r="356" s="38" customFormat="1" spans="1:4">
-      <c r="A356" s="38">
+    <row r="356" s="36" customFormat="1" spans="1:4">
+      <c r="A356" s="36">
         <v>355</v>
       </c>
-      <c r="B356" s="38">
+      <c r="B356" s="36">
         <v>57</v>
       </c>
-      <c r="C356" s="38">
+      <c r="C356" s="36">
         <v>11829</v>
       </c>
-      <c r="D356" s="38">
+      <c r="D356" s="36">
         <v>5</v>
       </c>
     </row>
-    <row r="357" s="38" customFormat="1" spans="1:4">
-      <c r="A357" s="38">
+    <row r="357" s="36" customFormat="1" spans="1:4">
+      <c r="A357" s="36">
         <v>356</v>
       </c>
-      <c r="B357" s="38">
+      <c r="B357" s="36">
         <v>57</v>
       </c>
-      <c r="C357" s="38">
+      <c r="C357" s="36">
         <v>11830</v>
       </c>
-      <c r="D357" s="38">
+      <c r="D357" s="36">
         <v>10</v>
       </c>
     </row>
-    <row r="358" s="38" customFormat="1" spans="1:4">
-      <c r="A358" s="38">
+    <row r="358" s="36" customFormat="1" spans="1:4">
+      <c r="A358" s="36">
         <v>357</v>
       </c>
-      <c r="B358" s="38">
+      <c r="B358" s="36">
         <v>57</v>
       </c>
-      <c r="C358" s="38">
+      <c r="C358" s="36">
         <v>11831</v>
       </c>
-      <c r="D358" s="38">
+      <c r="D358" s="36">
         <v>10</v>
       </c>
     </row>
-    <row r="359" s="38" customFormat="1" spans="1:4">
-      <c r="A359" s="38">
+    <row r="359" s="36" customFormat="1" spans="1:4">
+      <c r="A359" s="36">
         <v>358</v>
       </c>
-      <c r="B359" s="38">
+      <c r="B359" s="36">
         <v>57</v>
       </c>
-      <c r="C359" s="38">
+      <c r="C359" s="36">
         <v>11832</v>
       </c>
-      <c r="D359" s="38">
+      <c r="D359" s="36">
         <v>5</v>
       </c>
     </row>
@@ -15390,13 +15427,13 @@
       <c r="A360" s="8">
         <v>359</v>
       </c>
-      <c r="B360" s="38">
+      <c r="B360" s="36">
         <v>58</v>
       </c>
       <c r="C360" s="8">
         <v>11833</v>
       </c>
-      <c r="D360" s="38">
+      <c r="D360" s="36">
         <v>20</v>
       </c>
     </row>
@@ -15404,13 +15441,13 @@
       <c r="A361" s="8">
         <v>360</v>
       </c>
-      <c r="B361" s="38">
+      <c r="B361" s="36">
         <v>58</v>
       </c>
       <c r="C361" s="8">
         <v>11834</v>
       </c>
-      <c r="D361" s="38">
+      <c r="D361" s="36">
         <v>25</v>
       </c>
     </row>
@@ -15418,13 +15455,13 @@
       <c r="A362" s="8">
         <v>361</v>
       </c>
-      <c r="B362" s="38">
+      <c r="B362" s="36">
         <v>58</v>
       </c>
       <c r="C362" s="8">
         <v>11835</v>
       </c>
-      <c r="D362" s="38">
+      <c r="D362" s="36">
         <v>5</v>
       </c>
     </row>
@@ -15432,13 +15469,13 @@
       <c r="A363" s="8">
         <v>362</v>
       </c>
-      <c r="B363" s="38">
+      <c r="B363" s="36">
         <v>58</v>
       </c>
       <c r="C363" s="8">
         <v>11836</v>
       </c>
-      <c r="D363" s="38">
+      <c r="D363" s="36">
         <v>10</v>
       </c>
     </row>
@@ -15446,13 +15483,13 @@
       <c r="A364" s="8">
         <v>363</v>
       </c>
-      <c r="B364" s="38">
+      <c r="B364" s="36">
         <v>58</v>
       </c>
       <c r="C364" s="8">
         <v>11837</v>
       </c>
-      <c r="D364" s="38">
+      <c r="D364" s="36">
         <v>10</v>
       </c>
     </row>
@@ -15460,13 +15497,13 @@
       <c r="A365" s="8">
         <v>364</v>
       </c>
-      <c r="B365" s="38">
+      <c r="B365" s="36">
         <v>58</v>
       </c>
       <c r="C365" s="8">
         <v>11838</v>
       </c>
-      <c r="D365" s="38">
+      <c r="D365" s="36">
         <v>5</v>
       </c>
     </row>
@@ -15474,13 +15511,13 @@
       <c r="A366" s="8">
         <v>365</v>
       </c>
-      <c r="B366" s="38">
+      <c r="B366" s="36">
         <v>58</v>
       </c>
       <c r="C366" s="8">
         <v>11839</v>
       </c>
-      <c r="D366" s="38">
+      <c r="D366" s="36">
         <v>10</v>
       </c>
     </row>
@@ -15488,13 +15525,13 @@
       <c r="A367" s="8">
         <v>366</v>
       </c>
-      <c r="B367" s="38">
+      <c r="B367" s="36">
         <v>58</v>
       </c>
       <c r="C367" s="8">
         <v>11840</v>
       </c>
-      <c r="D367" s="38">
+      <c r="D367" s="36">
         <v>10</v>
       </c>
     </row>
@@ -15502,13 +15539,13 @@
       <c r="A368" s="8">
         <v>367</v>
       </c>
-      <c r="B368" s="38">
+      <c r="B368" s="36">
         <v>58</v>
       </c>
       <c r="C368" s="8">
         <v>11841</v>
       </c>
-      <c r="D368" s="38">
+      <c r="D368" s="36">
         <v>5</v>
       </c>
     </row>
@@ -15516,13 +15553,13 @@
       <c r="A369" s="8">
         <v>368</v>
       </c>
-      <c r="B369" s="38">
+      <c r="B369" s="36">
         <v>59</v>
       </c>
       <c r="C369" s="8">
         <v>11842</v>
       </c>
-      <c r="D369" s="38">
+      <c r="D369" s="36">
         <v>20</v>
       </c>
     </row>
@@ -15530,13 +15567,13 @@
       <c r="A370" s="8">
         <v>369</v>
       </c>
-      <c r="B370" s="38">
+      <c r="B370" s="36">
         <v>59</v>
       </c>
       <c r="C370" s="8">
         <v>11843</v>
       </c>
-      <c r="D370" s="38">
+      <c r="D370" s="36">
         <v>25</v>
       </c>
     </row>
@@ -15544,13 +15581,13 @@
       <c r="A371" s="8">
         <v>370</v>
       </c>
-      <c r="B371" s="38">
+      <c r="B371" s="36">
         <v>59</v>
       </c>
       <c r="C371" s="8">
         <v>11844</v>
       </c>
-      <c r="D371" s="38">
+      <c r="D371" s="36">
         <v>5</v>
       </c>
     </row>
@@ -15558,13 +15595,13 @@
       <c r="A372" s="8">
         <v>371</v>
       </c>
-      <c r="B372" s="38">
+      <c r="B372" s="36">
         <v>59</v>
       </c>
       <c r="C372" s="8">
         <v>11845</v>
       </c>
-      <c r="D372" s="38">
+      <c r="D372" s="36">
         <v>10</v>
       </c>
     </row>
@@ -15572,13 +15609,13 @@
       <c r="A373" s="8">
         <v>372</v>
       </c>
-      <c r="B373" s="38">
+      <c r="B373" s="36">
         <v>59</v>
       </c>
       <c r="C373" s="8">
         <v>11846</v>
       </c>
-      <c r="D373" s="38">
+      <c r="D373" s="36">
         <v>10</v>
       </c>
     </row>
@@ -15586,13 +15623,13 @@
       <c r="A374" s="8">
         <v>373</v>
       </c>
-      <c r="B374" s="38">
+      <c r="B374" s="36">
         <v>59</v>
       </c>
       <c r="C374" s="8">
         <v>11847</v>
       </c>
-      <c r="D374" s="38">
+      <c r="D374" s="36">
         <v>5</v>
       </c>
     </row>
@@ -15600,13 +15637,13 @@
       <c r="A375" s="8">
         <v>374</v>
       </c>
-      <c r="B375" s="38">
+      <c r="B375" s="36">
         <v>59</v>
       </c>
       <c r="C375" s="8">
         <v>11848</v>
       </c>
-      <c r="D375" s="38">
+      <c r="D375" s="36">
         <v>10</v>
       </c>
     </row>
@@ -15614,13 +15651,13 @@
       <c r="A376" s="8">
         <v>375</v>
       </c>
-      <c r="B376" s="38">
+      <c r="B376" s="36">
         <v>59</v>
       </c>
       <c r="C376" s="8">
         <v>11849</v>
       </c>
-      <c r="D376" s="38">
+      <c r="D376" s="36">
         <v>10</v>
       </c>
     </row>
@@ -15628,13 +15665,13 @@
       <c r="A377" s="8">
         <v>376</v>
       </c>
-      <c r="B377" s="38">
+      <c r="B377" s="36">
         <v>59</v>
       </c>
       <c r="C377" s="8">
         <v>11850</v>
       </c>
-      <c r="D377" s="38">
+      <c r="D377" s="36">
         <v>5</v>
       </c>
     </row>
@@ -18355,7 +18392,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A546" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B578" sqref="B578"/>
+      <selection pane="bottomLeft" activeCell="C576" sqref="C576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -27189,7 +27226,7 @@
       <c r="C566" s="4" t="s">
         <v>700</v>
       </c>
-      <c r="D566" s="36" t="s">
+      <c r="D566" s="8" t="s">
         <v>104</v>
       </c>
       <c r="E566" s="9" t="s">
@@ -27240,7 +27277,7 @@
       <c r="C569" s="4" t="s">
         <v>703</v>
       </c>
-      <c r="D569" s="36" t="s">
+      <c r="D569" s="8" t="s">
         <v>104</v>
       </c>
       <c r="E569" s="9" t="s">
@@ -27291,7 +27328,7 @@
       <c r="C572" s="4" t="s">
         <v>706</v>
       </c>
-      <c r="D572" s="37" t="s">
+      <c r="D572" s="18" t="s">
         <v>670</v>
       </c>
       <c r="E572" s="9" t="s">
@@ -27308,7 +27345,7 @@
       <c r="C573" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="D573" s="36" t="s">
+      <c r="D573" s="8" t="s">
         <v>104</v>
       </c>
       <c r="E573" s="9" t="s">
@@ -27342,7 +27379,7 @@
       <c r="C575" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="D575" s="37" t="s">
+      <c r="D575" s="18" t="s">
         <v>670</v>
       </c>
       <c r="E575" s="9" t="s">
@@ -27364,7 +27401,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D91" sqref="D91"/>
+      <selection pane="bottomLeft" activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -28762,7 +28799,7 @@
   <sheetPr/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>

--- a/config_5.18/box_exchange_server.xlsx
+++ b/config_5.18/box_exchange_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -183,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="727">
   <si>
     <t>id|</t>
   </si>
@@ -5070,33 +5070,6 @@
   </si>
   <si>
     <t>卷纸16卷</t>
-  </si>
-  <si>
-    <t>800福利券</t>
-  </si>
-  <si>
-    <t>100万金币</t>
-  </si>
-  <si>
-    <t>50万金币</t>
-  </si>
-  <si>
-    <t>100福利券</t>
-  </si>
-  <si>
-    <t>10万金币</t>
-  </si>
-  <si>
-    <t>100话费碎片</t>
-  </si>
-  <si>
-    <t>8万小游戏币</t>
-  </si>
-  <si>
-    <t>15话费碎片</t>
-  </si>
-  <si>
-    <t>30000小游戏币</t>
   </si>
   <si>
     <t>weight_id|配置id</t>
@@ -5223,10 +5196,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -5268,9 +5241,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5283,7 +5271,22 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -5297,36 +5300,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5334,7 +5317,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5357,7 +5340,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -5365,29 +5348,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5401,27 +5377,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -5478,13 +5451,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5496,7 +5535,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5508,49 +5565,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5568,61 +5589,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5634,13 +5613,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5680,17 +5653,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5711,6 +5678,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -5721,24 +5712,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5760,20 +5733,20 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5783,10 +5756,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5795,136 +5768,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -6400,10 +6373,10 @@
   <sheetPr/>
   <dimension ref="A1:Q93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B93" sqref="B93"/>
+      <selection pane="bottomLeft" activeCell="K93" sqref="K93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -18389,10 +18362,10 @@
   <sheetPr/>
   <dimension ref="A1:F575"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A546" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A543" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C576" sqref="C576"/>
+      <selection pane="bottomLeft" activeCell="I572" sqref="I572"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -27223,9 +27196,7 @@
       <c r="B566" s="8">
         <v>12037</v>
       </c>
-      <c r="C566" s="4" t="s">
-        <v>700</v>
-      </c>
+      <c r="C566" s="4"/>
       <c r="D566" s="8" t="s">
         <v>104</v>
       </c>
@@ -27240,9 +27211,7 @@
       <c r="B567" s="8">
         <v>12038</v>
       </c>
-      <c r="C567" s="4" t="s">
-        <v>701</v>
-      </c>
+      <c r="C567" s="4"/>
       <c r="D567" s="8" t="s">
         <v>107</v>
       </c>
@@ -27257,9 +27226,7 @@
       <c r="B568" s="8">
         <v>12039</v>
       </c>
-      <c r="C568" s="4" t="s">
-        <v>702</v>
-      </c>
+      <c r="C568" s="4"/>
       <c r="D568" s="8" t="s">
         <v>107</v>
       </c>
@@ -27274,9 +27241,7 @@
       <c r="B569" s="8">
         <v>12040</v>
       </c>
-      <c r="C569" s="4" t="s">
-        <v>703</v>
-      </c>
+      <c r="C569" s="4"/>
       <c r="D569" s="8" t="s">
         <v>104</v>
       </c>
@@ -27291,9 +27256,7 @@
       <c r="B570" s="8">
         <v>12041</v>
       </c>
-      <c r="C570" s="4" t="s">
-        <v>704</v>
-      </c>
+      <c r="C570" s="4"/>
       <c r="D570" s="8" t="s">
         <v>107</v>
       </c>
@@ -27308,9 +27271,7 @@
       <c r="B571" s="8">
         <v>12042</v>
       </c>
-      <c r="C571" s="4" t="s">
-        <v>705</v>
-      </c>
+      <c r="C571" s="4"/>
       <c r="D571" s="18" t="s">
         <v>282</v>
       </c>
@@ -27325,9 +27286,7 @@
       <c r="B572" s="8">
         <v>12043</v>
       </c>
-      <c r="C572" s="4" t="s">
-        <v>706</v>
-      </c>
+      <c r="C572" s="4"/>
       <c r="D572" s="18" t="s">
         <v>670</v>
       </c>
@@ -27342,9 +27301,7 @@
       <c r="B573" s="8">
         <v>12044</v>
       </c>
-      <c r="C573" s="4" t="s">
-        <v>514</v>
-      </c>
+      <c r="C573" s="4"/>
       <c r="D573" s="8" t="s">
         <v>104</v>
       </c>
@@ -27359,9 +27316,7 @@
       <c r="B574" s="8">
         <v>12045</v>
       </c>
-      <c r="C574" s="4" t="s">
-        <v>707</v>
-      </c>
+      <c r="C574" s="4"/>
       <c r="D574" s="18" t="s">
         <v>282</v>
       </c>
@@ -27376,9 +27331,7 @@
       <c r="B575" s="8">
         <v>12046</v>
       </c>
-      <c r="C575" s="4" t="s">
-        <v>708</v>
-      </c>
+      <c r="C575" s="4"/>
       <c r="D575" s="18" t="s">
         <v>670</v>
       </c>
@@ -27416,10 +27369,10 @@
         <v>157</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>160</v>
@@ -27433,7 +27386,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -27447,7 +27400,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -27461,7 +27414,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -27475,7 +27428,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -27489,7 +27442,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -27503,7 +27456,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="D7">
         <v>500</v>
@@ -27517,7 +27470,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="D8">
         <v>1000</v>
@@ -27531,7 +27484,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="D9">
         <v>500</v>
@@ -27545,7 +27498,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="D10">
         <v>1000</v>
@@ -27559,7 +27512,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="D11">
         <v>3000</v>
@@ -27573,7 +27526,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="D12">
         <v>4000</v>
@@ -27587,7 +27540,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="D13">
         <v>6000</v>
@@ -27601,7 +27554,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="D14">
         <v>10000</v>
@@ -27615,7 +27568,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="D15">
         <v>10000</v>
@@ -27629,7 +27582,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="D16">
         <v>12000</v>
@@ -27643,7 +27596,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="D17">
         <v>12000</v>
@@ -27657,7 +27610,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="D18">
         <v>10000</v>
@@ -27671,7 +27624,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="D19">
         <v>10000</v>
@@ -27685,7 +27638,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="D20">
         <v>10000</v>
@@ -27699,7 +27652,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="D21">
         <v>10000</v>
@@ -27713,7 +27666,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -27727,7 +27680,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="D23">
         <v>10</v>
@@ -27741,7 +27694,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="D24">
         <v>50</v>
@@ -27755,7 +27708,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="D25">
         <v>500</v>
@@ -27769,7 +27722,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="D26">
         <v>500</v>
@@ -27783,7 +27736,7 @@
         <v>6</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="D27">
         <v>1000</v>
@@ -27797,7 +27750,7 @@
         <v>7</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="D28">
         <v>1000</v>
@@ -27811,7 +27764,7 @@
         <v>8</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="D29">
         <v>1000</v>
@@ -27825,7 +27778,7 @@
         <v>9</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="D30">
         <v>1000</v>
@@ -27839,7 +27792,7 @@
         <v>10</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="D31">
         <v>3000</v>
@@ -27853,7 +27806,7 @@
         <v>11</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="D32">
         <v>3940</v>
@@ -27867,7 +27820,7 @@
         <v>12</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="D33">
         <v>6000</v>
@@ -27881,7 +27834,7 @@
         <v>13</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="D34">
         <v>10000</v>
@@ -27895,7 +27848,7 @@
         <v>14</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="D35">
         <v>10000</v>
@@ -27909,7 +27862,7 @@
         <v>15</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="D36">
         <v>12000</v>
@@ -27923,7 +27876,7 @@
         <v>16</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="D37">
         <v>10000</v>
@@ -27937,7 +27890,7 @@
         <v>17</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="D38">
         <v>10000</v>
@@ -27951,7 +27904,7 @@
         <v>18</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="D39">
         <v>10000</v>
@@ -27965,7 +27918,7 @@
         <v>19</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="D40">
         <v>10000</v>
@@ -27979,7 +27932,7 @@
         <v>20</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="D41">
         <v>10000</v>
@@ -27993,7 +27946,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -28007,7 +27960,7 @@
         <v>2</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="D43">
         <v>10</v>
@@ -28021,7 +27974,7 @@
         <v>3</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="D44">
         <v>50</v>
@@ -28035,7 +27988,7 @@
         <v>4</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="D45">
         <v>500</v>
@@ -28049,7 +28002,7 @@
         <v>5</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="D46">
         <v>500</v>
@@ -28063,7 +28016,7 @@
         <v>6</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="D47">
         <v>1000</v>
@@ -28077,7 +28030,7 @@
         <v>7</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="D48">
         <v>1000</v>
@@ -28091,7 +28044,7 @@
         <v>8</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="D49">
         <v>1000</v>
@@ -28105,7 +28058,7 @@
         <v>9</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="D50">
         <v>1000</v>
@@ -28119,7 +28072,7 @@
         <v>10</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="D51">
         <v>3000</v>
@@ -28133,7 +28086,7 @@
         <v>11</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="D52">
         <v>3939</v>
@@ -28147,7 +28100,7 @@
         <v>12</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="D53">
         <v>6000</v>
@@ -28161,7 +28114,7 @@
         <v>13</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="D54">
         <v>10000</v>
@@ -28175,7 +28128,7 @@
         <v>14</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="D55">
         <v>10000</v>
@@ -28189,7 +28142,7 @@
         <v>15</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="D56">
         <v>12000</v>
@@ -28203,7 +28156,7 @@
         <v>16</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="D57">
         <v>10000</v>
@@ -28217,7 +28170,7 @@
         <v>17</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="D58">
         <v>10000</v>
@@ -28231,7 +28184,7 @@
         <v>18</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="D59">
         <v>10000</v>
@@ -28245,7 +28198,7 @@
         <v>19</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="D60">
         <v>10000</v>
@@ -28259,7 +28212,7 @@
         <v>20</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="D61">
         <v>10000</v>
@@ -28273,7 +28226,7 @@
         <v>21</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="D62" s="5">
         <v>0</v>
@@ -28287,7 +28240,7 @@
         <v>22</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="D63" s="5">
         <v>0</v>
@@ -28301,7 +28254,7 @@
         <v>23</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="D64" s="5">
         <v>0</v>
@@ -28315,7 +28268,7 @@
         <v>24</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="D65" s="5">
         <v>0</v>
@@ -28329,7 +28282,7 @@
         <v>25</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="D66" s="5">
         <v>0</v>
@@ -28343,7 +28296,7 @@
         <v>26</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="D67" s="5">
         <v>16</v>
@@ -28357,7 +28310,7 @@
         <v>27</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="D68" s="5">
         <v>16</v>
@@ -28371,7 +28324,7 @@
         <v>28</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="D69" s="5">
         <v>160</v>
@@ -28385,7 +28338,7 @@
         <v>29</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="D70" s="5">
         <v>802</v>
@@ -28399,7 +28352,7 @@
         <v>30</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="D71" s="5">
         <v>802</v>
@@ -28413,7 +28366,7 @@
         <v>31</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="D72" s="5">
         <v>481</v>
@@ -28427,7 +28380,7 @@
         <v>32</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="D73" s="5">
         <v>1283</v>
@@ -28441,7 +28394,7 @@
         <v>33</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="D74" s="5">
         <v>1604</v>
@@ -28455,7 +28408,7 @@
         <v>34</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="D75" s="5">
         <v>2406</v>
@@ -28469,7 +28422,7 @@
         <v>35</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="D76" s="5">
         <v>2406</v>
@@ -28483,7 +28436,7 @@
         <v>21</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="D77" s="5">
         <v>0</v>
@@ -28497,7 +28450,7 @@
         <v>22</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="D78" s="5">
         <v>0</v>
@@ -28511,7 +28464,7 @@
         <v>23</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="D79" s="5">
         <v>2</v>
@@ -28525,7 +28478,7 @@
         <v>24</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="D80" s="5">
         <v>8</v>
@@ -28539,7 +28492,7 @@
         <v>25</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="D81" s="5">
         <v>13</v>
@@ -28553,7 +28506,7 @@
         <v>26</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="D82" s="5">
         <v>16</v>
@@ -28567,7 +28520,7 @@
         <v>27</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="D83" s="5">
         <v>16</v>
@@ -28581,7 +28534,7 @@
         <v>28</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="D84" s="5">
         <v>160</v>
@@ -28595,7 +28548,7 @@
         <v>29</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="D85" s="5">
         <v>802</v>
@@ -28609,7 +28562,7 @@
         <v>30</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="D86" s="5">
         <v>802</v>
@@ -28623,7 +28576,7 @@
         <v>31</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="D87" s="5">
         <v>481</v>
@@ -28637,7 +28590,7 @@
         <v>32</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="D88" s="5">
         <v>1283</v>
@@ -28651,7 +28604,7 @@
         <v>33</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="D89" s="5">
         <v>1604</v>
@@ -28665,7 +28618,7 @@
         <v>34</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="D90" s="5">
         <v>2406</v>
@@ -28679,7 +28632,7 @@
         <v>35</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="D91" s="5">
         <v>2406</v>
@@ -28814,25 +28767,25 @@
   <sheetData>
     <row r="1" ht="40.5" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -28840,10 +28793,10 @@
         <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -28852,7 +28805,7 @@
         <v>1000479</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -28860,10 +28813,10 @@
         <v>90</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -28892,21 +28845,21 @@
   <sheetData>
     <row r="1" ht="27" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="B2">
         <v>88</v>
@@ -28915,12 +28868,12 @@
         <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="B3">
         <v>89</v>
@@ -28931,7 +28884,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="B4">
         <v>90</v>
@@ -28963,10 +28916,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
     </row>
   </sheetData>

--- a/config_5.18/box_exchange_server.xlsx
+++ b/config_5.18/box_exchange_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -183,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="727">
   <si>
     <t>id|</t>
   </si>
@@ -5196,10 +5196,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -5241,14 +5241,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5259,6 +5267,51 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5279,53 +5332,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5347,8 +5354,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5363,22 +5371,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5451,13 +5451,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5469,7 +5469,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5481,7 +5481,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5493,19 +5499,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5523,7 +5529,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5535,49 +5571,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5589,25 +5583,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5662,36 +5662,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -5716,6 +5686,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -5730,36 +5750,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5768,133 +5768,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
@@ -6373,10 +6373,10 @@
   <sheetPr/>
   <dimension ref="A1:Q93"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K93" sqref="K93"/>
+      <selection pane="bottomLeft" activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -18362,7 +18362,7 @@
   <sheetPr/>
   <dimension ref="A1:F575"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A543" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="I572" sqref="I572"/>
@@ -27196,7 +27196,6 @@
       <c r="B566" s="8">
         <v>12037</v>
       </c>
-      <c r="C566" s="4"/>
       <c r="D566" s="8" t="s">
         <v>104</v>
       </c>
@@ -27211,7 +27210,6 @@
       <c r="B567" s="8">
         <v>12038</v>
       </c>
-      <c r="C567" s="4"/>
       <c r="D567" s="8" t="s">
         <v>107</v>
       </c>
@@ -27226,7 +27224,6 @@
       <c r="B568" s="8">
         <v>12039</v>
       </c>
-      <c r="C568" s="4"/>
       <c r="D568" s="8" t="s">
         <v>107</v>
       </c>
@@ -27241,7 +27238,6 @@
       <c r="B569" s="8">
         <v>12040</v>
       </c>
-      <c r="C569" s="4"/>
       <c r="D569" s="8" t="s">
         <v>104</v>
       </c>
@@ -27256,7 +27252,6 @@
       <c r="B570" s="8">
         <v>12041</v>
       </c>
-      <c r="C570" s="4"/>
       <c r="D570" s="8" t="s">
         <v>107</v>
       </c>
@@ -27271,7 +27266,6 @@
       <c r="B571" s="8">
         <v>12042</v>
       </c>
-      <c r="C571" s="4"/>
       <c r="D571" s="18" t="s">
         <v>282</v>
       </c>
@@ -27286,7 +27280,6 @@
       <c r="B572" s="8">
         <v>12043</v>
       </c>
-      <c r="C572" s="4"/>
       <c r="D572" s="18" t="s">
         <v>670</v>
       </c>
@@ -27301,7 +27294,6 @@
       <c r="B573" s="8">
         <v>12044</v>
       </c>
-      <c r="C573" s="4"/>
       <c r="D573" s="8" t="s">
         <v>104</v>
       </c>
@@ -27316,7 +27308,6 @@
       <c r="B574" s="8">
         <v>12045</v>
       </c>
-      <c r="C574" s="4"/>
       <c r="D574" s="18" t="s">
         <v>282</v>
       </c>
@@ -27331,7 +27322,6 @@
       <c r="B575" s="8">
         <v>12046</v>
       </c>
-      <c r="C575" s="4"/>
       <c r="D575" s="18" t="s">
         <v>670</v>
       </c>
@@ -28750,13 +28740,13 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="25.5" customWidth="1"/>
     <col min="3" max="3" width="11.25" customWidth="1"/>
@@ -28819,6 +28809,34 @@
         <v>715</v>
       </c>
       <c r="D3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>91</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>92</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="D5">
         <v>10</v>
       </c>
     </row>

--- a/config_5.18/box_exchange_server.xlsx
+++ b/config_5.18/box_exchange_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="6"/>
+    <workbookView windowWidth="19035" windowHeight="10050" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -183,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="729">
   <si>
     <t>id|</t>
   </si>
@@ -5186,6 +5186,12 @@
   </si>
   <si>
     <t>hlwyt_003</t>
+  </si>
+  <si>
+    <t>hlwyt_004</t>
+  </si>
+  <si>
+    <t>hlwyt_005</t>
   </si>
   <si>
     <t>all_powerful_type|万能道具类型</t>
@@ -5198,8 +5204,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -5240,6 +5246,38 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -5256,6 +5294,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -5264,29 +5323,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5301,52 +5368,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -5355,25 +5376,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5451,7 +5457,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5463,19 +5535,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5487,13 +5547,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5505,79 +5595,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5589,7 +5607,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5601,19 +5619,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5653,20 +5659,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5682,6 +5685,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5703,11 +5715,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5736,17 +5746,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5756,10 +5762,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5768,19 +5774,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5789,112 +5795,112 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
@@ -6376,7 +6382,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A92" sqref="A92"/>
+      <selection pane="bottomLeft" activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -28742,8 +28748,8 @@
   <sheetPr/>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="6"/>
@@ -28850,13 +28856,13 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="4" max="4" width="36.125" customWidth="1"/>
   </cols>
@@ -28909,6 +28915,28 @@
       </c>
       <c r="C4">
         <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>726</v>
+      </c>
+      <c r="B5">
+        <v>91</v>
+      </c>
+      <c r="C5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>727</v>
+      </c>
+      <c r="B6">
+        <v>92</v>
+      </c>
+      <c r="C6">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -28937,7 +28965,7 @@
         <v>707</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
   </sheetData>
